--- a/Unity/Assets/Config/Excel/AbilityConfig/ItemConfig/ItemCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ItemConfig/ItemCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ItemConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FA63FA-161E-4C2F-BE6B-44548FE1A0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7124DFA6-8DD6-4D81-97AF-45A47A85E0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="797">
   <si>
     <t>##var</t>
   </si>
@@ -2344,7 +2344,153 @@
     <t>Monster_Challenge10_5_4</t>
   </si>
   <si>
-    <t>Monster_Tutorial</t>
+    <t>Monster_MiFeng1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_MiFeng2</t>
+  </si>
+  <si>
+    <t>Monster_MiFeng3</t>
+  </si>
+  <si>
+    <t>Monster_BianFu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_BianFu2</t>
+  </si>
+  <si>
+    <t>Monster_BianFu3</t>
+  </si>
+  <si>
+    <t>Monster_ZhiZhu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_ZhiZhu2</t>
+  </si>
+  <si>
+    <t>Monster_ZhiZhu3</t>
+  </si>
+  <si>
+    <t>Monster_ZhongZi1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_ZhongZi2</t>
+  </si>
+  <si>
+    <t>Monster_ZhongZi3</t>
+  </si>
+  <si>
+    <t>Monster_Gui1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Gui2</t>
+  </si>
+  <si>
+    <t>Monster_Gui3</t>
+  </si>
+  <si>
+    <t>Monster_Dan1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Dan2</t>
+  </si>
+  <si>
+    <t>Monster_Dan3</t>
+  </si>
+  <si>
+    <t>Monster_Niao1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Niao2</t>
+  </si>
+  <si>
+    <t>Monster_Niao3</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_MiFeng1</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_MiFeng2</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_MiFeng3</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_BianFu1</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_BianFu2</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_BianFu3</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_ZhiZhu1</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_ZhiZhu2</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_ZhiZhu3</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_ZhongZi1</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_ZhongZi2</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_ZhongZi3</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_Gui1</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_Gui2</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_Gui3</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_Dan1</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_Dan2</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_Dan3</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_Niao1</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_Niao2</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster_Niao3</t>
+  </si>
+  <si>
+    <t>Monster_Tutorial_1_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Tutorial_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Tutorial_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Tutorial_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Tutorial_3_3</t>
   </si>
 </sst>
 </file>
@@ -6078,10 +6224,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M271"/>
+  <dimension ref="A1:M297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:K6"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6240,8 +6389,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
-        <v>750</v>
+      <c r="B6" s="9" t="s">
+        <v>792</v>
       </c>
       <c r="E6" s="9"/>
       <c r="H6" t="s">
@@ -6258,15 +6407,27 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8" t="s">
+        <v>793</v>
+      </c>
       <c r="E7" s="9"/>
-      <c r="H7"/>
-      <c r="I7" s="3"/>
-      <c r="J7"/>
-      <c r="K7"/>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
-        <v>624</v>
+        <v>794</v>
       </c>
       <c r="E8" s="9"/>
       <c r="H8" t="s">
@@ -6283,8 +6444,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
       <c r="B9" s="8" t="s">
-        <v>625</v>
+        <v>795</v>
       </c>
       <c r="E9" s="9"/>
       <c r="H9" t="s">
@@ -6302,7 +6464,7 @@
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>626</v>
+        <v>796</v>
       </c>
       <c r="E10" s="9"/>
       <c r="H10" t="s">
@@ -6319,26 +6481,15 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
-        <v>627</v>
-      </c>
       <c r="E11" s="9"/>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="J11" t="s">
-        <v>465</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
+      <c r="H11"/>
+      <c r="I11" s="3"/>
+      <c r="J11"/>
+      <c r="K11"/>
     </row>
     <row r="12" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E12" s="9"/>
       <c r="H12" t="s">
@@ -6356,7 +6507,7 @@
     </row>
     <row r="13" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E13" s="9"/>
       <c r="H13" t="s">
@@ -6374,7 +6525,7 @@
     </row>
     <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E14" s="9"/>
       <c r="H14" t="s">
@@ -6392,7 +6543,7 @@
     </row>
     <row r="15" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E15" s="9"/>
       <c r="H15" t="s">
@@ -6410,7 +6561,7 @@
     </row>
     <row r="16" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E16" s="9"/>
       <c r="H16" t="s">
@@ -6428,7 +6579,7 @@
     </row>
     <row r="17" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E17" s="9"/>
       <c r="H17" t="s">
@@ -6446,7 +6597,7 @@
     </row>
     <row r="18" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E18" s="9"/>
       <c r="H18" t="s">
@@ -6464,7 +6615,7 @@
     </row>
     <row r="19" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E19" s="9"/>
       <c r="H19" t="s">
@@ -6482,7 +6633,7 @@
     </row>
     <row r="20" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E20" s="9"/>
       <c r="H20" t="s">
@@ -6500,7 +6651,7 @@
     </row>
     <row r="21" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E21" s="9"/>
       <c r="H21" t="s">
@@ -6518,7 +6669,7 @@
     </row>
     <row r="22" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E22" s="9"/>
       <c r="H22" t="s">
@@ -6536,7 +6687,7 @@
     </row>
     <row r="23" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E23" s="9"/>
       <c r="H23" t="s">
@@ -6554,7 +6705,7 @@
     </row>
     <row r="24" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E24" s="9"/>
       <c r="H24" t="s">
@@ -6572,7 +6723,7 @@
     </row>
     <row r="25" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E25" s="9"/>
       <c r="H25" t="s">
@@ -6590,7 +6741,7 @@
     </row>
     <row r="26" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E26" s="9"/>
       <c r="H26" t="s">
@@ -6608,7 +6759,7 @@
     </row>
     <row r="27" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E27" s="9"/>
       <c r="H27" t="s">
@@ -6626,7 +6777,7 @@
     </row>
     <row r="28" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E28" s="9"/>
       <c r="H28" t="s">
@@ -6644,7 +6795,7 @@
     </row>
     <row r="29" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E29" s="9"/>
       <c r="H29" t="s">
@@ -6662,7 +6813,7 @@
     </row>
     <row r="30" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E30" s="9"/>
       <c r="H30" t="s">
@@ -6680,7 +6831,7 @@
     </row>
     <row r="31" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E31" s="9"/>
       <c r="H31" t="s">
@@ -6698,7 +6849,7 @@
     </row>
     <row r="32" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E32" s="9"/>
       <c r="H32" t="s">
@@ -6716,7 +6867,7 @@
     </row>
     <row r="33" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E33" s="9"/>
       <c r="H33" t="s">
@@ -6734,7 +6885,7 @@
     </row>
     <row r="34" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E34" s="9"/>
       <c r="H34" t="s">
@@ -6752,7 +6903,7 @@
     </row>
     <row r="35" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E35" s="9"/>
       <c r="H35" t="s">
@@ -6770,7 +6921,7 @@
     </row>
     <row r="36" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E36" s="9"/>
       <c r="H36" t="s">
@@ -6788,7 +6939,7 @@
     </row>
     <row r="37" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E37" s="9"/>
       <c r="H37" t="s">
@@ -6806,7 +6957,7 @@
     </row>
     <row r="38" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E38" s="9"/>
       <c r="H38" t="s">
@@ -6824,7 +6975,7 @@
     </row>
     <row r="39" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E39" s="9"/>
       <c r="H39" t="s">
@@ -6842,7 +6993,7 @@
     </row>
     <row r="40" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="8" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E40" s="9"/>
       <c r="H40" t="s">
@@ -6860,7 +7011,7 @@
     </row>
     <row r="41" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E41" s="9"/>
       <c r="H41" t="s">
@@ -6878,7 +7029,7 @@
     </row>
     <row r="42" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E42" s="9"/>
       <c r="H42" t="s">
@@ -6896,7 +7047,7 @@
     </row>
     <row r="43" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E43" s="9"/>
       <c r="H43" t="s">
@@ -6914,7 +7065,7 @@
     </row>
     <row r="44" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E44" s="9"/>
       <c r="H44" t="s">
@@ -6932,7 +7083,7 @@
     </row>
     <row r="45" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E45" s="9"/>
       <c r="H45" t="s">
@@ -6950,7 +7101,7 @@
     </row>
     <row r="46" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="8" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E46" s="9"/>
       <c r="H46" t="s">
@@ -6968,7 +7119,7 @@
     </row>
     <row r="47" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E47" s="9"/>
       <c r="H47" t="s">
@@ -6986,7 +7137,7 @@
     </row>
     <row r="48" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E48" s="9"/>
       <c r="H48" t="s">
@@ -7004,7 +7155,7 @@
     </row>
     <row r="49" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E49" s="9"/>
       <c r="H49" t="s">
@@ -7022,7 +7173,7 @@
     </row>
     <row r="50" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="8" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E50" s="9"/>
       <c r="H50" t="s">
@@ -7040,7 +7191,7 @@
     </row>
     <row r="51" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="8" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E51" s="9"/>
       <c r="H51" t="s">
@@ -7058,7 +7209,7 @@
     </row>
     <row r="52" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="8" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E52" s="9"/>
       <c r="H52" t="s">
@@ -7076,7 +7227,7 @@
     </row>
     <row r="53" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="8" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E53" s="9"/>
       <c r="H53" t="s">
@@ -7094,7 +7245,7 @@
     </row>
     <row r="54" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E54" s="9"/>
       <c r="H54" t="s">
@@ -7112,7 +7263,7 @@
     </row>
     <row r="55" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="8" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E55" s="9"/>
       <c r="H55" t="s">
@@ -7130,7 +7281,7 @@
     </row>
     <row r="56" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="8" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E56" s="9"/>
       <c r="H56" t="s">
@@ -7148,7 +7299,7 @@
     </row>
     <row r="57" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="8" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E57" s="9"/>
       <c r="H57" t="s">
@@ -7166,7 +7317,7 @@
     </row>
     <row r="58" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="8" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E58" s="9"/>
       <c r="H58" t="s">
@@ -7183,12 +7334,28 @@
       </c>
     </row>
     <row r="59" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="8" t="s">
+        <v>671</v>
+      </c>
       <c r="E59" s="9"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>582</v>
-      </c>
+      <c r="H59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J59" t="s">
+        <v>465</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="E60" s="9"/>
       <c r="H60" t="s">
         <v>33</v>
       </c>
@@ -7202,10 +7369,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>583</v>
-      </c>
+    <row r="61" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="E61" s="9"/>
       <c r="H61" t="s">
         <v>33</v>
       </c>
@@ -7219,10 +7387,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>584</v>
-      </c>
+    <row r="62" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="E62" s="9"/>
       <c r="H62" t="s">
         <v>33</v>
       </c>
@@ -7236,26 +7405,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>585</v>
-      </c>
-      <c r="H63" t="s">
-        <v>33</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="J63" t="s">
-        <v>465</v>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
+    <row r="63" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E63" s="9"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H64" t="s">
         <v>33</v>
@@ -7272,7 +7427,7 @@
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H65" t="s">
         <v>33</v>
@@ -7289,7 +7444,7 @@
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H66" t="s">
         <v>33</v>
@@ -7306,7 +7461,7 @@
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H67" t="s">
         <v>33</v>
@@ -7323,7 +7478,7 @@
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="H68" t="s">
         <v>33</v>
@@ -7340,7 +7495,7 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H69" t="s">
         <v>33</v>
@@ -7357,7 +7512,7 @@
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H70" t="s">
         <v>33</v>
@@ -7374,7 +7529,7 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H71" t="s">
         <v>33</v>
@@ -7391,7 +7546,7 @@
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="H72" t="s">
         <v>33</v>
@@ -7408,7 +7563,7 @@
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H73" t="s">
         <v>33</v>
@@ -7425,7 +7580,7 @@
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H74" t="s">
         <v>33</v>
@@ -7442,7 +7597,7 @@
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H75" t="s">
         <v>33</v>
@@ -7459,7 +7614,7 @@
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H76" t="s">
         <v>33</v>
@@ -7476,7 +7631,7 @@
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H77" t="s">
         <v>33</v>
@@ -7493,7 +7648,7 @@
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H78" t="s">
         <v>33</v>
@@ -7510,7 +7665,7 @@
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H79" t="s">
         <v>33</v>
@@ -7527,7 +7682,7 @@
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H80" t="s">
         <v>33</v>
@@ -7544,7 +7699,7 @@
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H81" t="s">
         <v>33</v>
@@ -7561,7 +7716,7 @@
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H82" t="s">
         <v>33</v>
@@ -7578,7 +7733,7 @@
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H83" t="s">
         <v>33</v>
@@ -7595,7 +7750,7 @@
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H84" t="s">
         <v>33</v>
@@ -7612,7 +7767,7 @@
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H85" t="s">
         <v>33</v>
@@ -7629,7 +7784,7 @@
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H86" t="s">
         <v>33</v>
@@ -7646,7 +7801,7 @@
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H87" t="s">
         <v>33</v>
@@ -7663,7 +7818,7 @@
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H88" t="s">
         <v>33</v>
@@ -7680,7 +7835,7 @@
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H89" t="s">
         <v>33</v>
@@ -7697,7 +7852,7 @@
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H90" t="s">
         <v>33</v>
@@ -7714,7 +7869,7 @@
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H91" t="s">
         <v>33</v>
@@ -7731,7 +7886,7 @@
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H92" t="s">
         <v>33</v>
@@ -7748,7 +7903,7 @@
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H93" t="s">
         <v>33</v>
@@ -7765,7 +7920,7 @@
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H94" t="s">
         <v>33</v>
@@ -7782,7 +7937,7 @@
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H95" t="s">
         <v>33</v>
@@ -7799,7 +7954,7 @@
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H96" t="s">
         <v>33</v>
@@ -7816,7 +7971,7 @@
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="H97" t="s">
         <v>33</v>
@@ -7833,7 +7988,7 @@
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="H98" t="s">
         <v>33</v>
@@ -7850,7 +8005,7 @@
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="H99" t="s">
         <v>33</v>
@@ -7867,7 +8022,7 @@
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H100" t="s">
         <v>33</v>
@@ -7884,7 +8039,7 @@
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="H101" t="s">
         <v>33</v>
@@ -7900,17 +8055,25 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I102" s="3"/>
+      <c r="B102" t="s">
+        <v>620</v>
+      </c>
+      <c r="H102" t="s">
+        <v>33</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J102" t="s">
+        <v>465</v>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>461</v>
-      </c>
-      <c r="C103" t="s">
-        <v>462</v>
-      </c>
-      <c r="E103" t="s">
-        <v>463</v>
+        <v>621</v>
       </c>
       <c r="H103" t="s">
         <v>33</v>
@@ -7927,13 +8090,7 @@
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>466</v>
-      </c>
-      <c r="C104" t="s">
-        <v>467</v>
-      </c>
-      <c r="E104" t="s">
-        <v>468</v>
+        <v>622</v>
       </c>
       <c r="H104" t="s">
         <v>33</v>
@@ -7950,13 +8107,7 @@
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>469</v>
-      </c>
-      <c r="C105" t="s">
-        <v>470</v>
-      </c>
-      <c r="E105" t="s">
-        <v>471</v>
+        <v>623</v>
       </c>
       <c r="H105" t="s">
         <v>33</v>
@@ -7972,37 +8123,17 @@
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>472</v>
-      </c>
-      <c r="C106" t="s">
-        <v>473</v>
-      </c>
-      <c r="E106" t="s">
-        <v>474</v>
-      </c>
-      <c r="H106" t="s">
-        <v>33</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="J106" t="s">
-        <v>465</v>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
+      <c r="I106" s="3"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="C107" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="E107" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="H107" t="s">
         <v>33</v>
@@ -8019,13 +8150,13 @@
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="C108" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="E108" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="H108" t="s">
         <v>33</v>
@@ -8042,13 +8173,13 @@
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C109" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="E109" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="H109" t="s">
         <v>33</v>
@@ -8065,13 +8196,13 @@
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C110" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="E110" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H110" t="s">
         <v>33</v>
@@ -8088,13 +8219,13 @@
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="C111" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="E111" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="H111" t="s">
         <v>33</v>
@@ -8111,13 +8242,13 @@
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C112" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E112" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="H112" t="s">
         <v>33</v>
@@ -8129,12 +8260,41 @@
         <v>465</v>
       </c>
       <c r="K112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>481</v>
+      </c>
+      <c r="C113" t="s">
+        <v>482</v>
+      </c>
+      <c r="E113" t="s">
+        <v>483</v>
+      </c>
+      <c r="H113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J113" t="s">
+        <v>465</v>
+      </c>
+      <c r="K113" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>545</v>
+        <v>484</v>
+      </c>
+      <c r="C114" t="s">
+        <v>485</v>
+      </c>
+      <c r="E114" t="s">
+        <v>486</v>
       </c>
       <c r="H114" t="s">
         <v>33</v>
@@ -8151,7 +8311,13 @@
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>546</v>
+        <v>487</v>
+      </c>
+      <c r="C115" t="s">
+        <v>488</v>
+      </c>
+      <c r="E115" t="s">
+        <v>489</v>
       </c>
       <c r="H115" t="s">
         <v>33</v>
@@ -8168,7 +8334,13 @@
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>547</v>
+        <v>490</v>
+      </c>
+      <c r="C116" t="s">
+        <v>491</v>
+      </c>
+      <c r="E116" t="s">
+        <v>492</v>
       </c>
       <c r="H116" t="s">
         <v>33</v>
@@ -8180,29 +8352,12 @@
         <v>465</v>
       </c>
       <c r="K116" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
-        <v>548</v>
-      </c>
-      <c r="H117" t="s">
-        <v>33</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="J117" t="s">
-        <v>465</v>
-      </c>
-      <c r="K117" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H118" t="s">
         <v>33</v>
@@ -8219,7 +8374,7 @@
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H119" t="s">
         <v>33</v>
@@ -8235,8 +8390,8 @@
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B120" s="3" t="s">
-        <v>551</v>
+      <c r="B120" t="s">
+        <v>547</v>
       </c>
       <c r="H120" t="s">
         <v>33</v>
@@ -8253,7 +8408,7 @@
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H121" t="s">
         <v>33</v>
@@ -8270,7 +8425,7 @@
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H122" t="s">
         <v>33</v>
@@ -8287,7 +8442,7 @@
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H123" t="s">
         <v>33</v>
@@ -8303,8 +8458,8 @@
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>555</v>
+      <c r="B124" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="H124" t="s">
         <v>33</v>
@@ -8321,7 +8476,7 @@
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H125" t="s">
         <v>33</v>
@@ -8338,7 +8493,7 @@
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H126" t="s">
         <v>33</v>
@@ -8355,7 +8510,7 @@
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H127" t="s">
         <v>33</v>
@@ -8372,7 +8527,7 @@
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H128" t="s">
         <v>33</v>
@@ -8389,7 +8544,7 @@
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H129" t="s">
         <v>33</v>
@@ -8406,7 +8561,7 @@
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H130" t="s">
         <v>33</v>
@@ -8423,7 +8578,7 @@
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H131" t="s">
         <v>33</v>
@@ -8440,7 +8595,7 @@
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H132" t="s">
         <v>33</v>
@@ -8457,7 +8612,7 @@
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H133" t="s">
         <v>33</v>
@@ -8474,7 +8629,7 @@
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H134" t="s">
         <v>33</v>
@@ -8491,7 +8646,7 @@
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H135" t="s">
         <v>33</v>
@@ -8508,7 +8663,7 @@
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H136" t="s">
         <v>33</v>
@@ -8525,7 +8680,7 @@
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H137" t="s">
         <v>33</v>
@@ -8542,7 +8697,7 @@
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H138" t="s">
         <v>33</v>
@@ -8559,7 +8714,7 @@
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="H139" t="s">
         <v>33</v>
@@ -8576,7 +8731,7 @@
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H140" t="s">
         <v>33</v>
@@ -8593,7 +8748,7 @@
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H141" t="s">
         <v>33</v>
@@ -8610,7 +8765,7 @@
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H142" t="s">
         <v>33</v>
@@ -8627,7 +8782,7 @@
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H143" t="s">
         <v>33</v>
@@ -8644,7 +8799,7 @@
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H144" t="s">
         <v>33</v>
@@ -8661,7 +8816,7 @@
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H145" t="s">
         <v>33</v>
@@ -8678,7 +8833,7 @@
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H146" t="s">
         <v>33</v>
@@ -8695,7 +8850,7 @@
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H147" t="s">
         <v>33</v>
@@ -8712,7 +8867,7 @@
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H148" t="s">
         <v>33</v>
@@ -8729,7 +8884,7 @@
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H149" t="s">
         <v>33</v>
@@ -8746,7 +8901,7 @@
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H150" t="s">
         <v>33</v>
@@ -8758,12 +8913,29 @@
         <v>465</v>
       </c>
       <c r="K150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>578</v>
+      </c>
+      <c r="H151" t="s">
+        <v>33</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J151" t="s">
+        <v>465</v>
+      </c>
+      <c r="K151" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>496</v>
+        <v>579</v>
       </c>
       <c r="H152" t="s">
         <v>33</v>
@@ -8780,7 +8952,7 @@
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>497</v>
+        <v>580</v>
       </c>
       <c r="H153" t="s">
         <v>33</v>
@@ -8797,7 +8969,7 @@
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>498</v>
+        <v>581</v>
       </c>
       <c r="H154" t="s">
         <v>33</v>
@@ -8809,29 +8981,12 @@
         <v>465</v>
       </c>
       <c r="K154" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B155" t="s">
-        <v>499</v>
-      </c>
-      <c r="H155" t="s">
-        <v>33</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="J155" t="s">
-        <v>465</v>
-      </c>
-      <c r="K155" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H156" t="s">
         <v>33</v>
@@ -8848,7 +9003,7 @@
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H157" t="s">
         <v>33</v>
@@ -8865,7 +9020,7 @@
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H158" t="s">
         <v>33</v>
@@ -8882,7 +9037,7 @@
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H159" t="s">
         <v>33</v>
@@ -8899,7 +9054,7 @@
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H160" t="s">
         <v>33</v>
@@ -8916,7 +9071,7 @@
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H161" t="s">
         <v>33</v>
@@ -8933,7 +9088,7 @@
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H162" t="s">
         <v>33</v>
@@ -8950,7 +9105,7 @@
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H163" t="s">
         <v>33</v>
@@ -8967,7 +9122,7 @@
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H164" t="s">
         <v>33</v>
@@ -8984,7 +9139,7 @@
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H165" t="s">
         <v>33</v>
@@ -9001,7 +9156,7 @@
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H166" t="s">
         <v>33</v>
@@ -9018,7 +9173,7 @@
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H167" t="s">
         <v>33</v>
@@ -9035,7 +9190,7 @@
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H168" t="s">
         <v>33</v>
@@ -9052,7 +9207,7 @@
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H169" t="s">
         <v>33</v>
@@ -9069,7 +9224,7 @@
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H170" t="s">
         <v>33</v>
@@ -9086,7 +9241,7 @@
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H171" t="s">
         <v>33</v>
@@ -9103,7 +9258,7 @@
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H172" t="s">
         <v>33</v>
@@ -9120,7 +9275,7 @@
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H173" t="s">
         <v>33</v>
@@ -9137,7 +9292,7 @@
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H174" t="s">
         <v>33</v>
@@ -9154,7 +9309,7 @@
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H175" t="s">
         <v>33</v>
@@ -9171,7 +9326,7 @@
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H176" t="s">
         <v>33</v>
@@ -9188,7 +9343,7 @@
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H177" t="s">
         <v>33</v>
@@ -9205,7 +9360,7 @@
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H178" t="s">
         <v>33</v>
@@ -9222,7 +9377,7 @@
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H179" t="s">
         <v>33</v>
@@ -9239,7 +9394,7 @@
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H180" t="s">
         <v>33</v>
@@ -9256,7 +9411,7 @@
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="H181" t="s">
         <v>33</v>
@@ -9273,7 +9428,7 @@
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H182" t="s">
         <v>33</v>
@@ -9290,7 +9445,7 @@
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H183" t="s">
         <v>33</v>
@@ -9307,7 +9462,7 @@
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H184" t="s">
         <v>33</v>
@@ -9324,7 +9479,7 @@
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H185" t="s">
         <v>33</v>
@@ -9341,7 +9496,7 @@
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H186" t="s">
         <v>33</v>
@@ -9358,7 +9513,7 @@
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H187" t="s">
         <v>33</v>
@@ -9375,7 +9530,7 @@
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H188" t="s">
         <v>33</v>
@@ -9392,7 +9547,7 @@
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H189" t="s">
         <v>33</v>
@@ -9409,7 +9564,7 @@
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H190" t="s">
         <v>33</v>
@@ -9426,7 +9581,7 @@
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H191" t="s">
         <v>33</v>
@@ -9443,7 +9598,7 @@
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H192" t="s">
         <v>33</v>
@@ -9460,7 +9615,7 @@
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H193" t="s">
         <v>33</v>
@@ -9477,7 +9632,7 @@
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H194" t="s">
         <v>33</v>
@@ -9494,7 +9649,7 @@
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H195" t="s">
         <v>33</v>
@@ -9511,7 +9666,7 @@
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H196" t="s">
         <v>33</v>
@@ -9528,7 +9683,7 @@
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>675</v>
+        <v>537</v>
       </c>
       <c r="H197" t="s">
         <v>33</v>
@@ -9545,7 +9700,7 @@
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>676</v>
+        <v>538</v>
       </c>
       <c r="H198" t="s">
         <v>33</v>
@@ -9562,7 +9717,7 @@
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>677</v>
+        <v>539</v>
       </c>
       <c r="H199" t="s">
         <v>33</v>
@@ -9579,7 +9734,7 @@
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>678</v>
+        <v>540</v>
       </c>
       <c r="H200" t="s">
         <v>33</v>
@@ -9596,7 +9751,7 @@
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="H201" t="s">
         <v>33</v>
@@ -9613,7 +9768,7 @@
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="H202" t="s">
         <v>33</v>
@@ -9630,7 +9785,7 @@
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="H203" t="s">
         <v>33</v>
@@ -9647,7 +9802,7 @@
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="H204" t="s">
         <v>33</v>
@@ -9664,7 +9819,7 @@
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H205" t="s">
         <v>33</v>
@@ -9681,7 +9836,7 @@
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="H206" t="s">
         <v>33</v>
@@ -9698,7 +9853,7 @@
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H207" t="s">
         <v>33</v>
@@ -9715,7 +9870,7 @@
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H208" t="s">
         <v>33</v>
@@ -9732,7 +9887,7 @@
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="H209" t="s">
         <v>33</v>
@@ -9749,7 +9904,7 @@
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="H210" t="s">
         <v>33</v>
@@ -9766,7 +9921,7 @@
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="H211" t="s">
         <v>33</v>
@@ -9783,7 +9938,7 @@
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H212" t="s">
         <v>33</v>
@@ -9800,7 +9955,7 @@
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="H213" t="s">
         <v>33</v>
@@ -9817,7 +9972,7 @@
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H214" t="s">
         <v>33</v>
@@ -9834,7 +9989,7 @@
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H215" t="s">
         <v>33</v>
@@ -9851,7 +10006,7 @@
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H216" t="s">
         <v>33</v>
@@ -9868,7 +10023,7 @@
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H217" t="s">
         <v>33</v>
@@ -9885,7 +10040,7 @@
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H218" t="s">
         <v>33</v>
@@ -9902,7 +10057,7 @@
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="H219" t="s">
         <v>33</v>
@@ -9919,7 +10074,7 @@
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H220" t="s">
         <v>33</v>
@@ -9936,7 +10091,7 @@
     </row>
     <row r="221" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H221" t="s">
         <v>33</v>
@@ -9953,7 +10108,7 @@
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H222" t="s">
         <v>33</v>
@@ -9970,7 +10125,7 @@
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H223" t="s">
         <v>33</v>
@@ -9987,7 +10142,7 @@
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H224" t="s">
         <v>33</v>
@@ -10004,7 +10159,7 @@
     </row>
     <row r="225" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="H225" t="s">
         <v>33</v>
@@ -10021,7 +10176,7 @@
     </row>
     <row r="226" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="H226" t="s">
         <v>33</v>
@@ -10038,7 +10193,7 @@
     </row>
     <row r="227" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="H227" t="s">
         <v>33</v>
@@ -10055,7 +10210,7 @@
     </row>
     <row r="228" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="H228" t="s">
         <v>33</v>
@@ -10072,7 +10227,7 @@
     </row>
     <row r="229" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H229" t="s">
         <v>33</v>
@@ -10089,7 +10244,7 @@
     </row>
     <row r="230" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="H230" t="s">
         <v>33</v>
@@ -10106,7 +10261,7 @@
     </row>
     <row r="231" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="H231" t="s">
         <v>33</v>
@@ -10123,7 +10278,7 @@
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="H232" t="s">
         <v>33</v>
@@ -10140,7 +10295,7 @@
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="H233" t="s">
         <v>33</v>
@@ -10157,7 +10312,7 @@
     </row>
     <row r="234" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H234" t="s">
         <v>33</v>
@@ -10174,7 +10329,7 @@
     </row>
     <row r="235" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H235" t="s">
         <v>33</v>
@@ -10191,7 +10346,7 @@
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H236" t="s">
         <v>33</v>
@@ -10208,7 +10363,7 @@
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H237" t="s">
         <v>33</v>
@@ -10225,7 +10380,7 @@
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H238" t="s">
         <v>33</v>
@@ -10242,7 +10397,7 @@
     </row>
     <row r="239" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H239" t="s">
         <v>33</v>
@@ -10259,7 +10414,7 @@
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H240" t="s">
         <v>33</v>
@@ -10276,7 +10431,7 @@
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="H241" t="s">
         <v>33</v>
@@ -10293,7 +10448,7 @@
     </row>
     <row r="242" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H242" t="s">
         <v>33</v>
@@ -10310,7 +10465,7 @@
     </row>
     <row r="243" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="H243" t="s">
         <v>33</v>
@@ -10327,7 +10482,7 @@
     </row>
     <row r="244" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="H244" t="s">
         <v>33</v>
@@ -10344,7 +10499,7 @@
     </row>
     <row r="245" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H245" t="s">
         <v>33</v>
@@ -10361,7 +10516,7 @@
     </row>
     <row r="246" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="H246" t="s">
         <v>33</v>
@@ -10378,7 +10533,7 @@
     </row>
     <row r="247" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H247" t="s">
         <v>33</v>
@@ -10395,7 +10550,7 @@
     </row>
     <row r="248" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="H248" t="s">
         <v>33</v>
@@ -10412,7 +10567,7 @@
     </row>
     <row r="249" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="H249" t="s">
         <v>33</v>
@@ -10429,7 +10584,7 @@
     </row>
     <row r="250" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H250" t="s">
         <v>33</v>
@@ -10446,7 +10601,7 @@
     </row>
     <row r="251" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H251" t="s">
         <v>33</v>
@@ -10463,7 +10618,7 @@
     </row>
     <row r="252" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H252" t="s">
         <v>33</v>
@@ -10480,7 +10635,7 @@
     </row>
     <row r="253" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="H253" t="s">
         <v>33</v>
@@ -10497,7 +10652,7 @@
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H254" t="s">
         <v>33</v>
@@ -10514,7 +10669,7 @@
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H255" t="s">
         <v>33</v>
@@ -10531,7 +10686,7 @@
     </row>
     <row r="256" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H256" t="s">
         <v>33</v>
@@ -10548,7 +10703,7 @@
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="H257" t="s">
         <v>33</v>
@@ -10565,7 +10720,7 @@
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H258" t="s">
         <v>33</v>
@@ -10582,7 +10737,7 @@
     </row>
     <row r="259" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H259" t="s">
         <v>33</v>
@@ -10599,7 +10754,7 @@
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="H260" t="s">
         <v>33</v>
@@ -10616,7 +10771,7 @@
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H261" t="s">
         <v>33</v>
@@ -10633,7 +10788,7 @@
     </row>
     <row r="262" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="H262" t="s">
         <v>33</v>
@@ -10650,7 +10805,7 @@
     </row>
     <row r="263" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H263" t="s">
         <v>33</v>
@@ -10667,7 +10822,7 @@
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H264" t="s">
         <v>33</v>
@@ -10684,7 +10839,7 @@
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="H265" t="s">
         <v>33</v>
@@ -10701,7 +10856,7 @@
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="H266" t="s">
         <v>33</v>
@@ -10718,7 +10873,7 @@
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H267" t="s">
         <v>33</v>
@@ -10735,7 +10890,7 @@
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="H268" t="s">
         <v>33</v>
@@ -10752,7 +10907,7 @@
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="H269" t="s">
         <v>33</v>
@@ -10769,7 +10924,7 @@
     </row>
     <row r="270" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="H270" t="s">
         <v>33</v>
@@ -10786,18 +10941,506 @@
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
+        <v>745</v>
+      </c>
+      <c r="H271" t="s">
+        <v>33</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J271" t="s">
+        <v>465</v>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
+        <v>746</v>
+      </c>
+      <c r="H272" t="s">
+        <v>33</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J272" t="s">
+        <v>465</v>
+      </c>
+      <c r="K272" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
+        <v>747</v>
+      </c>
+      <c r="H273" t="s">
+        <v>33</v>
+      </c>
+      <c r="I273" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J273" t="s">
+        <v>465</v>
+      </c>
+      <c r="K273" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B274" t="s">
+        <v>748</v>
+      </c>
+      <c r="H274" t="s">
+        <v>33</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J274" t="s">
+        <v>465</v>
+      </c>
+      <c r="K274" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B275" t="s">
         <v>749</v>
       </c>
-      <c r="H271" t="s">
-        <v>33</v>
-      </c>
-      <c r="I271" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="J271" t="s">
-        <v>465</v>
-      </c>
-      <c r="K271" t="b">
+      <c r="H275" t="s">
+        <v>33</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J275" t="s">
+        <v>465</v>
+      </c>
+      <c r="K275" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B277" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="G277" t="s">
+        <v>771</v>
+      </c>
+      <c r="H277" t="s">
+        <v>33</v>
+      </c>
+      <c r="I277" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J277" t="s">
+        <v>465</v>
+      </c>
+      <c r="K277" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B278" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="G278" t="s">
+        <v>772</v>
+      </c>
+      <c r="H278" t="s">
+        <v>33</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J278" t="s">
+        <v>465</v>
+      </c>
+      <c r="K278" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B279" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="G279" t="s">
+        <v>773</v>
+      </c>
+      <c r="H279" t="s">
+        <v>33</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J279" t="s">
+        <v>465</v>
+      </c>
+      <c r="K279" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B280" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="G280" t="s">
+        <v>774</v>
+      </c>
+      <c r="H280" t="s">
+        <v>33</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J280" t="s">
+        <v>465</v>
+      </c>
+      <c r="K280" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B281" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="G281" t="s">
+        <v>775</v>
+      </c>
+      <c r="H281" t="s">
+        <v>33</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J281" t="s">
+        <v>465</v>
+      </c>
+      <c r="K281" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B282" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="G282" t="s">
+        <v>776</v>
+      </c>
+      <c r="H282" t="s">
+        <v>33</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J282" t="s">
+        <v>465</v>
+      </c>
+      <c r="K282" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B283" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="G283" t="s">
+        <v>777</v>
+      </c>
+      <c r="H283" t="s">
+        <v>33</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J283" t="s">
+        <v>465</v>
+      </c>
+      <c r="K283" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B284" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="G284" t="s">
+        <v>778</v>
+      </c>
+      <c r="H284" t="s">
+        <v>33</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J284" t="s">
+        <v>465</v>
+      </c>
+      <c r="K284" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B285" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="G285" t="s">
+        <v>779</v>
+      </c>
+      <c r="H285" t="s">
+        <v>33</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J285" t="s">
+        <v>465</v>
+      </c>
+      <c r="K285" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B286" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="G286" t="s">
+        <v>780</v>
+      </c>
+      <c r="H286" t="s">
+        <v>33</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J286" t="s">
+        <v>465</v>
+      </c>
+      <c r="K286" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B287" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="G287" t="s">
+        <v>781</v>
+      </c>
+      <c r="H287" t="s">
+        <v>33</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J287" t="s">
+        <v>465</v>
+      </c>
+      <c r="K287" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B288" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="G288" t="s">
+        <v>782</v>
+      </c>
+      <c r="H288" t="s">
+        <v>33</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J288" t="s">
+        <v>465</v>
+      </c>
+      <c r="K288" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B289" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="G289" t="s">
+        <v>783</v>
+      </c>
+      <c r="H289" t="s">
+        <v>33</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J289" t="s">
+        <v>465</v>
+      </c>
+      <c r="K289" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B290" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="G290" t="s">
+        <v>784</v>
+      </c>
+      <c r="H290" t="s">
+        <v>33</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J290" t="s">
+        <v>465</v>
+      </c>
+      <c r="K290" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B291" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="G291" t="s">
+        <v>785</v>
+      </c>
+      <c r="H291" t="s">
+        <v>33</v>
+      </c>
+      <c r="I291" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J291" t="s">
+        <v>465</v>
+      </c>
+      <c r="K291" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B292" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="G292" t="s">
+        <v>786</v>
+      </c>
+      <c r="H292" t="s">
+        <v>33</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J292" t="s">
+        <v>465</v>
+      </c>
+      <c r="K292" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B293" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="G293" t="s">
+        <v>787</v>
+      </c>
+      <c r="H293" t="s">
+        <v>33</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J293" t="s">
+        <v>465</v>
+      </c>
+      <c r="K293" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B294" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="G294" t="s">
+        <v>788</v>
+      </c>
+      <c r="H294" t="s">
+        <v>33</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J294" t="s">
+        <v>465</v>
+      </c>
+      <c r="K294" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B295" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="G295" t="s">
+        <v>789</v>
+      </c>
+      <c r="H295" t="s">
+        <v>33</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J295" t="s">
+        <v>465</v>
+      </c>
+      <c r="K295" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B296" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="G296" t="s">
+        <v>790</v>
+      </c>
+      <c r="H296" t="s">
+        <v>33</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J296" t="s">
+        <v>465</v>
+      </c>
+      <c r="K296" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B297" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="G297" t="s">
+        <v>791</v>
+      </c>
+      <c r="H297" t="s">
+        <v>33</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J297" t="s">
+        <v>465</v>
+      </c>
+      <c r="K297" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ItemConfig/ItemCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ItemConfig/ItemCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ItemConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ItemConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7124DFA6-8DD6-4D81-97AF-45A47A85E0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41B7587-34A3-47E7-9E84-B322EDC1F787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="833">
   <si>
     <t>##var</t>
   </si>
@@ -1566,15 +1566,15 @@
   </si>
   <si>
     <t>canStack</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>bool</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>能否叠起来</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Monster_Challenge_1_1</t>
@@ -1713,19 +1713,19 @@
   </si>
   <si>
     <t>string#ref=ResIconCfgCategory?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ResIcon_TowerArrowSolo1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>price</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>售价</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Monster_InfiniteTest_1_1</t>
@@ -2023,7 +2023,7 @@
   </si>
   <si>
     <t>Monster_Challenge3_1_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Monster_Challenge3_2_1</t>
@@ -2345,7 +2345,7 @@
   </si>
   <si>
     <t>Monster_MiFeng1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Monster_MiFeng2</t>
@@ -2355,7 +2355,7 @@
   </si>
   <si>
     <t>Monster_BianFu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Monster_BianFu2</t>
@@ -2365,7 +2365,7 @@
   </si>
   <si>
     <t>Monster_ZhiZhu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Monster_ZhiZhu2</t>
@@ -2375,7 +2375,7 @@
   </si>
   <si>
     <t>Monster_ZhongZi1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Monster_ZhongZi2</t>
@@ -2385,7 +2385,7 @@
   </si>
   <si>
     <t>Monster_Gui1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Monster_Gui2</t>
@@ -2395,7 +2395,7 @@
   </si>
   <si>
     <t>Monster_Dan1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Monster_Dan2</t>
@@ -2405,7 +2405,7 @@
   </si>
   <si>
     <t>Monster_Niao1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Monster_Niao2</t>
@@ -2478,7 +2478,7 @@
   </si>
   <si>
     <t>Monster_Tutorial_1_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Monster_Tutorial_2_1</t>
@@ -2491,18 +2491,197 @@
   </si>
   <si>
     <t>Monster_Tutorial_3_3</t>
+  </si>
+  <si>
+    <t>Tow25_1</t>
+  </si>
+  <si>
+    <t>Tow25_2</t>
+  </si>
+  <si>
+    <t>Tow25_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow25_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow25_1</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow25_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow25_2</t>
+  </si>
+  <si>
+    <t>Text_Key_Name_Tow25_3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Tow25_3</t>
+  </si>
+  <si>
+    <t>炸弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ResIcon_TowerBomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ResIcon_TowerBomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ResIcon_TowerBomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Trap</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackTower</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_MiFeng1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_MiFeng2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_MiFeng3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_BianFu1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_BianFu2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_BianFu3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhiZhu1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhiZhu2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhiZhu3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhongZi1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhongZi2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_ZhongZi3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Gui2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Gui3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Dan1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Dan2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Dan3</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Gui1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Niao1</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Niao2</t>
+  </si>
+  <si>
+    <t>Text_Key_Desc_Monster_Niao3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2638,39 +2817,39 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2951,28 +3130,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA154"/>
+  <dimension ref="A1:AA157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J29:J31"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="4.75" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="5" width="27.375" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="26.625" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" customWidth="1"/>
     <col min="9" max="14" width="29" customWidth="1"/>
-    <col min="15" max="15" width="19.625" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3023,7 +3202,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3054,7 +3233,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3105,7 +3284,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -3136,7 +3315,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -3187,7 +3366,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
@@ -3219,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>36</v>
       </c>
@@ -3245,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>40</v>
       </c>
@@ -3271,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>44</v>
       </c>
@@ -3297,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>48</v>
       </c>
@@ -3323,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>28</v>
       </c>
@@ -3345,14 +3524,14 @@
       <c r="K11" t="s">
         <v>34</v>
       </c>
-      <c r="L11" t="s">
-        <v>34</v>
+      <c r="L11" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>56</v>
       </c>
@@ -3374,14 +3553,14 @@
       <c r="K12" t="s">
         <v>34</v>
       </c>
-      <c r="L12" t="s">
-        <v>34</v>
+      <c r="L12" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>60</v>
       </c>
@@ -3403,14 +3582,14 @@
       <c r="K13" t="s">
         <v>34</v>
       </c>
-      <c r="L13" t="s">
-        <v>34</v>
+      <c r="L13" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>64</v>
       </c>
@@ -3432,14 +3611,14 @@
       <c r="K14" t="s">
         <v>34</v>
       </c>
-      <c r="L14" t="s">
-        <v>34</v>
+      <c r="L14" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>69</v>
       </c>
@@ -3461,14 +3640,14 @@
       <c r="K15" t="s">
         <v>34</v>
       </c>
-      <c r="L15" t="s">
-        <v>34</v>
+      <c r="L15" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>73</v>
       </c>
@@ -3490,14 +3669,14 @@
       <c r="K16" t="s">
         <v>34</v>
       </c>
-      <c r="L16" t="s">
-        <v>34</v>
+      <c r="L16" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>77</v>
       </c>
@@ -3519,14 +3698,14 @@
       <c r="K17" t="s">
         <v>34</v>
       </c>
-      <c r="L17" t="s">
-        <v>34</v>
+      <c r="L17" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>83</v>
       </c>
@@ -3548,14 +3727,14 @@
       <c r="K18" t="s">
         <v>34</v>
       </c>
-      <c r="L18" t="s">
-        <v>34</v>
+      <c r="L18" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>87</v>
       </c>
@@ -3577,14 +3756,14 @@
       <c r="K19" t="s">
         <v>34</v>
       </c>
-      <c r="L19" t="s">
-        <v>34</v>
+      <c r="L19" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>91</v>
       </c>
@@ -3606,14 +3785,14 @@
       <c r="K20" t="s">
         <v>34</v>
       </c>
-      <c r="L20" t="s">
-        <v>34</v>
+      <c r="L20" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>97</v>
       </c>
@@ -3635,14 +3814,14 @@
       <c r="K21" t="s">
         <v>34</v>
       </c>
-      <c r="L21" t="s">
-        <v>34</v>
+      <c r="L21" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>101</v>
       </c>
@@ -3664,14 +3843,14 @@
       <c r="K22" t="s">
         <v>34</v>
       </c>
-      <c r="L22" t="s">
-        <v>34</v>
+      <c r="L22" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>105</v>
       </c>
@@ -3693,14 +3872,14 @@
       <c r="K23" t="s">
         <v>34</v>
       </c>
-      <c r="L23" t="s">
-        <v>34</v>
+      <c r="L23" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>110</v>
       </c>
@@ -3722,14 +3901,14 @@
       <c r="K24" t="s">
         <v>34</v>
       </c>
-      <c r="L24" t="s">
-        <v>34</v>
+      <c r="L24" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>114</v>
       </c>
@@ -3751,14 +3930,14 @@
       <c r="K25" t="s">
         <v>34</v>
       </c>
-      <c r="L25" t="s">
-        <v>34</v>
+      <c r="L25" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>118</v>
       </c>
@@ -3780,14 +3959,14 @@
       <c r="K26" t="s">
         <v>34</v>
       </c>
-      <c r="L26" t="s">
-        <v>34</v>
+      <c r="L26" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>123</v>
       </c>
@@ -3809,14 +3988,14 @@
       <c r="K27" t="s">
         <v>34</v>
       </c>
-      <c r="L27" t="s">
-        <v>34</v>
+      <c r="L27" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>127</v>
       </c>
@@ -3838,14 +4017,14 @@
       <c r="K28" t="s">
         <v>34</v>
       </c>
-      <c r="L28" t="s">
-        <v>34</v>
+      <c r="L28" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>131</v>
       </c>
@@ -3867,14 +4046,14 @@
       <c r="K29" t="s">
         <v>34</v>
       </c>
-      <c r="L29" t="s">
-        <v>34</v>
+      <c r="L29" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M29" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>136</v>
       </c>
@@ -3896,14 +4075,14 @@
       <c r="K30" t="s">
         <v>34</v>
       </c>
-      <c r="L30" t="s">
-        <v>34</v>
+      <c r="L30" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M30" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>140</v>
       </c>
@@ -3925,14 +4104,14 @@
       <c r="K31" t="s">
         <v>34</v>
       </c>
-      <c r="L31" t="s">
-        <v>34</v>
+      <c r="L31" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>144</v>
       </c>
@@ -3954,14 +4133,14 @@
       <c r="K32" t="s">
         <v>34</v>
       </c>
-      <c r="L32" t="s">
-        <v>34</v>
+      <c r="L32" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M32" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>149</v>
       </c>
@@ -3983,14 +4162,14 @@
       <c r="K33" t="s">
         <v>34</v>
       </c>
-      <c r="L33" t="s">
-        <v>34</v>
+      <c r="L33" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M33" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>153</v>
       </c>
@@ -4012,14 +4191,14 @@
       <c r="K34" t="s">
         <v>34</v>
       </c>
-      <c r="L34" t="s">
-        <v>34</v>
+      <c r="L34" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M34" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>157</v>
       </c>
@@ -4041,14 +4220,14 @@
       <c r="K35" t="s">
         <v>34</v>
       </c>
-      <c r="L35" t="s">
-        <v>34</v>
+      <c r="L35" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M35" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>162</v>
       </c>
@@ -4070,14 +4249,14 @@
       <c r="K36" t="s">
         <v>34</v>
       </c>
-      <c r="L36" t="s">
-        <v>34</v>
+      <c r="L36" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>166</v>
       </c>
@@ -4099,14 +4278,14 @@
       <c r="K37" t="s">
         <v>34</v>
       </c>
-      <c r="L37" t="s">
-        <v>34</v>
+      <c r="L37" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M37" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>170</v>
       </c>
@@ -4128,14 +4307,14 @@
       <c r="K38" t="s">
         <v>34</v>
       </c>
-      <c r="L38" t="s">
-        <v>34</v>
+      <c r="L38" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M38" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>175</v>
       </c>
@@ -4157,14 +4336,14 @@
       <c r="K39" t="s">
         <v>34</v>
       </c>
-      <c r="L39" t="s">
-        <v>34</v>
+      <c r="L39" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M39" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>179</v>
       </c>
@@ -4186,14 +4365,14 @@
       <c r="K40" t="s">
         <v>34</v>
       </c>
-      <c r="L40" t="s">
-        <v>34</v>
+      <c r="L40" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M40" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>183</v>
       </c>
@@ -4215,14 +4394,14 @@
       <c r="K41" t="s">
         <v>34</v>
       </c>
-      <c r="L41" t="s">
-        <v>34</v>
+      <c r="L41" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>188</v>
       </c>
@@ -4244,14 +4423,14 @@
       <c r="K42" t="s">
         <v>34</v>
       </c>
-      <c r="L42" t="s">
-        <v>34</v>
+      <c r="L42" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M42" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>192</v>
       </c>
@@ -4273,14 +4452,14 @@
       <c r="K43" t="s">
         <v>34</v>
       </c>
-      <c r="L43" t="s">
-        <v>34</v>
+      <c r="L43" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>196</v>
       </c>
@@ -4302,14 +4481,14 @@
       <c r="K44" t="s">
         <v>34</v>
       </c>
-      <c r="L44" t="s">
-        <v>34</v>
+      <c r="L44" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M44" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>201</v>
       </c>
@@ -4331,14 +4510,14 @@
       <c r="K45" t="s">
         <v>34</v>
       </c>
-      <c r="L45" t="s">
-        <v>34</v>
+      <c r="L45" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M45" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>205</v>
       </c>
@@ -4360,14 +4539,14 @@
       <c r="K46" t="s">
         <v>34</v>
       </c>
-      <c r="L46" t="s">
-        <v>34</v>
+      <c r="L46" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M46" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>209</v>
       </c>
@@ -4389,14 +4568,14 @@
       <c r="K47" t="s">
         <v>34</v>
       </c>
-      <c r="L47" t="s">
-        <v>34</v>
+      <c r="L47" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M47" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>214</v>
       </c>
@@ -4418,14 +4597,14 @@
       <c r="K48" t="s">
         <v>34</v>
       </c>
-      <c r="L48" t="s">
-        <v>34</v>
+      <c r="L48" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M48" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>218</v>
       </c>
@@ -4447,14 +4626,14 @@
       <c r="K49" t="s">
         <v>34</v>
       </c>
-      <c r="L49" t="s">
-        <v>34</v>
+      <c r="L49" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M49" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>222</v>
       </c>
@@ -4476,14 +4655,14 @@
       <c r="K50" t="s">
         <v>34</v>
       </c>
-      <c r="L50" t="s">
-        <v>34</v>
+      <c r="L50" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M50" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>227</v>
       </c>
@@ -4505,14 +4684,14 @@
       <c r="K51" t="s">
         <v>34</v>
       </c>
-      <c r="L51" t="s">
-        <v>34</v>
+      <c r="L51" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M51" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>231</v>
       </c>
@@ -4534,14 +4713,14 @@
       <c r="K52" t="s">
         <v>34</v>
       </c>
-      <c r="L52" t="s">
-        <v>34</v>
+      <c r="L52" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M52" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>235</v>
       </c>
@@ -4563,14 +4742,14 @@
       <c r="K53" t="s">
         <v>34</v>
       </c>
-      <c r="L53" t="s">
-        <v>34</v>
+      <c r="L53" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M53" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>240</v>
       </c>
@@ -4592,14 +4771,14 @@
       <c r="K54" t="s">
         <v>34</v>
       </c>
-      <c r="L54" t="s">
-        <v>34</v>
+      <c r="L54" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M54" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>244</v>
       </c>
@@ -4621,14 +4800,14 @@
       <c r="K55" t="s">
         <v>34</v>
       </c>
-      <c r="L55" t="s">
-        <v>34</v>
+      <c r="L55" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M55" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>248</v>
       </c>
@@ -4650,14 +4829,14 @@
       <c r="K56" t="s">
         <v>34</v>
       </c>
-      <c r="L56" t="s">
-        <v>34</v>
+      <c r="L56" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M56" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>253</v>
       </c>
@@ -4679,14 +4858,14 @@
       <c r="K57" t="s">
         <v>34</v>
       </c>
-      <c r="L57" t="s">
-        <v>34</v>
+      <c r="L57" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M57" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>257</v>
       </c>
@@ -4708,14 +4887,14 @@
       <c r="K58" t="s">
         <v>34</v>
       </c>
-      <c r="L58" t="s">
-        <v>34</v>
+      <c r="L58" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M58" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>261</v>
       </c>
@@ -4737,14 +4916,14 @@
       <c r="K59" t="s">
         <v>34</v>
       </c>
-      <c r="L59" t="s">
-        <v>34</v>
+      <c r="L59" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M59" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>266</v>
       </c>
@@ -4766,14 +4945,14 @@
       <c r="K60" t="s">
         <v>34</v>
       </c>
-      <c r="L60" t="s">
-        <v>34</v>
+      <c r="L60" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M60" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>270</v>
       </c>
@@ -4795,14 +4974,14 @@
       <c r="K61" t="s">
         <v>34</v>
       </c>
-      <c r="L61" t="s">
-        <v>34</v>
+      <c r="L61" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M61" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>274</v>
       </c>
@@ -4824,14 +5003,14 @@
       <c r="K62" t="s">
         <v>34</v>
       </c>
-      <c r="L62" t="s">
-        <v>34</v>
+      <c r="L62" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>279</v>
       </c>
@@ -4853,14 +5032,14 @@
       <c r="K63" t="s">
         <v>34</v>
       </c>
-      <c r="L63" t="s">
-        <v>34</v>
+      <c r="L63" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M63" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>283</v>
       </c>
@@ -4882,14 +5061,14 @@
       <c r="K64" t="s">
         <v>34</v>
       </c>
-      <c r="L64" t="s">
-        <v>34</v>
+      <c r="L64" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M64" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>287</v>
       </c>
@@ -4911,14 +5090,14 @@
       <c r="K65" t="s">
         <v>34</v>
       </c>
-      <c r="L65" t="s">
-        <v>34</v>
+      <c r="L65" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M65" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>292</v>
       </c>
@@ -4940,14 +5119,14 @@
       <c r="K66" t="s">
         <v>34</v>
       </c>
-      <c r="L66" t="s">
-        <v>34</v>
+      <c r="L66" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M66" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>296</v>
       </c>
@@ -4969,14 +5148,14 @@
       <c r="K67" t="s">
         <v>34</v>
       </c>
-      <c r="L67" t="s">
-        <v>34</v>
+      <c r="L67" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M67" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>300</v>
       </c>
@@ -4998,14 +5177,14 @@
       <c r="K68" t="s">
         <v>34</v>
       </c>
-      <c r="L68" t="s">
-        <v>34</v>
+      <c r="L68" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M68" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>305</v>
       </c>
@@ -5027,14 +5206,14 @@
       <c r="K69" t="s">
         <v>34</v>
       </c>
-      <c r="L69" t="s">
-        <v>34</v>
+      <c r="L69" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M69" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>309</v>
       </c>
@@ -5056,14 +5235,14 @@
       <c r="K70" t="s">
         <v>34</v>
       </c>
-      <c r="L70" t="s">
-        <v>34</v>
+      <c r="L70" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M70" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>313</v>
       </c>
@@ -5085,14 +5264,14 @@
       <c r="K71" t="s">
         <v>34</v>
       </c>
-      <c r="L71" t="s">
-        <v>34</v>
+      <c r="L71" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M71" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>318</v>
       </c>
@@ -5114,14 +5293,14 @@
       <c r="K72" t="s">
         <v>34</v>
       </c>
-      <c r="L72" t="s">
-        <v>34</v>
+      <c r="L72" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M72" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>322</v>
       </c>
@@ -5143,14 +5322,14 @@
       <c r="K73" t="s">
         <v>34</v>
       </c>
-      <c r="L73" t="s">
-        <v>34</v>
+      <c r="L73" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M73" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>326</v>
       </c>
@@ -5172,14 +5351,14 @@
       <c r="K74" t="s">
         <v>34</v>
       </c>
-      <c r="L74" t="s">
-        <v>34</v>
+      <c r="L74" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M74" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>331</v>
       </c>
@@ -5201,14 +5380,14 @@
       <c r="K75" t="s">
         <v>34</v>
       </c>
-      <c r="L75" t="s">
-        <v>34</v>
+      <c r="L75" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M75" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>335</v>
       </c>
@@ -5230,14 +5409,14 @@
       <c r="K76" t="s">
         <v>34</v>
       </c>
-      <c r="L76" t="s">
-        <v>34</v>
+      <c r="L76" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M76" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>339</v>
       </c>
@@ -5259,14 +5438,14 @@
       <c r="K77" t="s">
         <v>34</v>
       </c>
-      <c r="L77" t="s">
-        <v>34</v>
+      <c r="L77" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M77" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>344</v>
       </c>
@@ -5288,14 +5467,14 @@
       <c r="K78" t="s">
         <v>34</v>
       </c>
-      <c r="L78" t="s">
-        <v>34</v>
+      <c r="L78" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M78" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>348</v>
       </c>
@@ -5317,14 +5496,14 @@
       <c r="K79" t="s">
         <v>34</v>
       </c>
-      <c r="L79" t="s">
-        <v>34</v>
+      <c r="L79" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M79" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>352</v>
       </c>
@@ -5346,14 +5525,14 @@
       <c r="K80" t="s">
         <v>34</v>
       </c>
-      <c r="L80" t="s">
-        <v>34</v>
+      <c r="L80" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M80" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>357</v>
       </c>
@@ -5375,14 +5554,14 @@
       <c r="K81" t="s">
         <v>34</v>
       </c>
-      <c r="L81" t="s">
-        <v>34</v>
+      <c r="L81" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M81" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>361</v>
       </c>
@@ -5404,28 +5583,57 @@
       <c r="K82" t="s">
         <v>34</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L82" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="M82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>797</v>
+      </c>
+      <c r="E83" t="s">
+        <v>800</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="G83" t="s">
+        <v>801</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="J83" t="s">
+        <v>33</v>
+      </c>
+      <c r="K83" t="s">
         <v>34</v>
       </c>
-      <c r="M82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="M83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>365</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F84" t="s">
-        <v>367</v>
+        <v>798</v>
+      </c>
+      <c r="E84" t="s">
+        <v>802</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>806</v>
       </c>
       <c r="G84" t="s">
-        <v>368</v>
-      </c>
-      <c r="I84" t="s">
-        <v>55</v>
+        <v>803</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>808</v>
       </c>
       <c r="J84" t="s">
         <v>33</v>
@@ -5433,28 +5641,28 @@
       <c r="K84" t="s">
         <v>34</v>
       </c>
-      <c r="L84" t="s">
-        <v>34</v>
+      <c r="L84" s="3" t="s">
+        <v>810</v>
       </c>
       <c r="M84" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>369</v>
+        <v>799</v>
       </c>
       <c r="E85" t="s">
-        <v>370</v>
-      </c>
-      <c r="F85" t="s">
-        <v>371</v>
+        <v>804</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>806</v>
       </c>
       <c r="G85" t="s">
-        <v>372</v>
-      </c>
-      <c r="I85" t="s">
-        <v>59</v>
+        <v>805</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>809</v>
       </c>
       <c r="J85" t="s">
         <v>33</v>
@@ -5462,57 +5670,28 @@
       <c r="K85" t="s">
         <v>34</v>
       </c>
-      <c r="L85" t="s">
-        <v>34</v>
+      <c r="L85" s="3" t="s">
+        <v>810</v>
       </c>
       <c r="M85" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D86" t="s">
-        <v>373</v>
-      </c>
-      <c r="E86" t="s">
-        <v>374</v>
-      </c>
-      <c r="F86" t="s">
-        <v>375</v>
-      </c>
-      <c r="G86" t="s">
-        <v>376</v>
-      </c>
-      <c r="I86" t="s">
-        <v>63</v>
-      </c>
-      <c r="J86" t="s">
-        <v>33</v>
-      </c>
-      <c r="K86" t="s">
-        <v>34</v>
-      </c>
-      <c r="L86" t="s">
-        <v>34</v>
-      </c>
-      <c r="M86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>377</v>
-      </c>
-      <c r="E87" t="s">
-        <v>378</v>
+        <v>365</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="F87" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="G87" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="I87" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="J87" t="s">
         <v>33</v>
@@ -5520,28 +5699,28 @@
       <c r="K87" t="s">
         <v>34</v>
       </c>
-      <c r="L87" t="s">
-        <v>34</v>
+      <c r="L87" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M87" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E88" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="F88" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G88" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="I88" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J88" t="s">
         <v>33</v>
@@ -5549,28 +5728,28 @@
       <c r="K88" t="s">
         <v>34</v>
       </c>
-      <c r="L88" t="s">
-        <v>34</v>
+      <c r="L88" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M88" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E89" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="F89" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G89" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I89" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J89" t="s">
         <v>33</v>
@@ -5578,28 +5757,28 @@
       <c r="K89" t="s">
         <v>34</v>
       </c>
-      <c r="L89" t="s">
-        <v>34</v>
+      <c r="L89" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M89" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E90" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="F90" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G90" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="I90" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J90" t="s">
         <v>33</v>
@@ -5607,28 +5786,28 @@
       <c r="K90" t="s">
         <v>34</v>
       </c>
-      <c r="L90" t="s">
-        <v>34</v>
+      <c r="L90" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M90" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E91" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="F91" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="G91" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="I91" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J91" t="s">
         <v>33</v>
@@ -5636,28 +5815,28 @@
       <c r="K91" t="s">
         <v>34</v>
       </c>
-      <c r="L91" t="s">
-        <v>34</v>
+      <c r="L91" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M91" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E92" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="F92" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="G92" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="I92" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J92" t="s">
         <v>33</v>
@@ -5665,28 +5844,28 @@
       <c r="K92" t="s">
         <v>34</v>
       </c>
-      <c r="L92" t="s">
-        <v>34</v>
+      <c r="L92" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M92" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E93" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="F93" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="G93" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="I93" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J93" t="s">
         <v>33</v>
@@ -5694,28 +5873,28 @@
       <c r="K93" t="s">
         <v>34</v>
       </c>
-      <c r="L93" t="s">
-        <v>34</v>
+      <c r="L93" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M93" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E94" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="F94" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="G94" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="I94" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J94" t="s">
         <v>33</v>
@@ -5723,28 +5902,28 @@
       <c r="K94" t="s">
         <v>34</v>
       </c>
-      <c r="L94" t="s">
-        <v>34</v>
+      <c r="L94" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M94" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E95" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="F95" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G95" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="I95" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="J95" t="s">
         <v>33</v>
@@ -5752,28 +5931,28 @@
       <c r="K95" t="s">
         <v>34</v>
       </c>
-      <c r="L95" t="s">
-        <v>34</v>
+      <c r="L95" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M95" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E96" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="F96" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="G96" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="I96" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="J96" t="s">
         <v>33</v>
@@ -5781,28 +5960,28 @@
       <c r="K96" t="s">
         <v>34</v>
       </c>
-      <c r="L96" t="s">
-        <v>34</v>
+      <c r="L96" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M96" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E97" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F97" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="G97" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="I97" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J97" t="s">
         <v>33</v>
@@ -5810,28 +5989,28 @@
       <c r="K97" t="s">
         <v>34</v>
       </c>
-      <c r="L97" t="s">
-        <v>34</v>
+      <c r="L97" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M97" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E98" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="F98" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="G98" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="I98" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="J98" t="s">
         <v>33</v>
@@ -5839,28 +6018,28 @@
       <c r="K98" t="s">
         <v>34</v>
       </c>
-      <c r="L98" t="s">
-        <v>34</v>
+      <c r="L98" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M98" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E99" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="F99" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="G99" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="I99" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="J99" t="s">
         <v>33</v>
@@ -5868,28 +6047,28 @@
       <c r="K99" t="s">
         <v>34</v>
       </c>
-      <c r="L99" t="s">
-        <v>34</v>
+      <c r="L99" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M99" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="E100" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="F100" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="G100" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="I100" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="J100" t="s">
         <v>33</v>
@@ -5897,28 +6076,28 @@
       <c r="K100" t="s">
         <v>34</v>
       </c>
-      <c r="L100" t="s">
-        <v>34</v>
+      <c r="L100" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M100" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E101" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="F101" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="G101" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="I101" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="J101" t="s">
         <v>33</v>
@@ -5926,28 +6105,28 @@
       <c r="K101" t="s">
         <v>34</v>
       </c>
-      <c r="L101" t="s">
-        <v>34</v>
+      <c r="L101" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M101" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E102" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="F102" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="G102" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="I102" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="J102" t="s">
         <v>33</v>
@@ -5955,28 +6134,28 @@
       <c r="K102" t="s">
         <v>34</v>
       </c>
-      <c r="L102" t="s">
-        <v>34</v>
+      <c r="L102" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M102" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E103" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="F103" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G103" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="I103" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="J103" t="s">
         <v>33</v>
@@ -5984,28 +6163,28 @@
       <c r="K103" t="s">
         <v>34</v>
       </c>
-      <c r="L103" t="s">
-        <v>34</v>
+      <c r="L103" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M103" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="E104" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="F104" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="G104" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="I104" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="J104" t="s">
         <v>33</v>
@@ -6013,28 +6192,28 @@
       <c r="K104" t="s">
         <v>34</v>
       </c>
-      <c r="L104" t="s">
-        <v>34</v>
+      <c r="L104" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M104" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="E105" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F105" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="G105" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="I105" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="J105" t="s">
         <v>33</v>
@@ -6042,28 +6221,28 @@
       <c r="K105" t="s">
         <v>34</v>
       </c>
-      <c r="L105" t="s">
-        <v>34</v>
+      <c r="L105" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M105" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E106" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="F106" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="G106" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="I106" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="J106" t="s">
         <v>33</v>
@@ -6071,28 +6250,28 @@
       <c r="K106" t="s">
         <v>34</v>
       </c>
-      <c r="L106" t="s">
-        <v>34</v>
+      <c r="L106" s="3" t="s">
+        <v>811</v>
       </c>
       <c r="M106" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E107" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="F107" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G107" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="I107" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="J107" t="s">
         <v>33</v>
@@ -6100,112 +6279,199 @@
       <c r="K107" t="s">
         <v>34</v>
       </c>
-      <c r="L107" t="s">
+      <c r="L107" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="M107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>449</v>
+      </c>
+      <c r="E108" t="s">
+        <v>450</v>
+      </c>
+      <c r="F108" t="s">
+        <v>451</v>
+      </c>
+      <c r="G108" t="s">
+        <v>452</v>
+      </c>
+      <c r="I108" t="s">
+        <v>148</v>
+      </c>
+      <c r="J108" t="s">
+        <v>33</v>
+      </c>
+      <c r="K108" t="s">
         <v>34</v>
       </c>
-      <c r="M107" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D131" s="3"/>
-      <c r="G131" s="3"/>
-    </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D132" s="3"/>
-      <c r="G132" s="3"/>
-    </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D133" s="3"/>
-      <c r="G133" s="3"/>
-    </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="L108" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="M108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>453</v>
+      </c>
+      <c r="E109" t="s">
+        <v>454</v>
+      </c>
+      <c r="F109" t="s">
+        <v>455</v>
+      </c>
+      <c r="G109" t="s">
+        <v>456</v>
+      </c>
+      <c r="I109" t="s">
+        <v>152</v>
+      </c>
+      <c r="J109" t="s">
+        <v>33</v>
+      </c>
+      <c r="K109" t="s">
+        <v>34</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="M109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>457</v>
+      </c>
+      <c r="E110" t="s">
+        <v>458</v>
+      </c>
+      <c r="F110" t="s">
+        <v>459</v>
+      </c>
+      <c r="G110" t="s">
+        <v>460</v>
+      </c>
+      <c r="I110" t="s">
+        <v>156</v>
+      </c>
+      <c r="J110" t="s">
+        <v>33</v>
+      </c>
+      <c r="K110" t="s">
+        <v>34</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="M110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D134" s="3"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D138" s="3"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D139" s="3"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D140" s="3"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D141" s="3"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D142" s="3"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D143" s="3"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D144" s="3"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D145" s="3"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D146" s="3"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D147" s="3"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D148" s="3"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D149" s="3"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D150" s="3"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D151" s="3"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D154" s="3"/>
       <c r="G154" s="3"/>
     </row>
+    <row r="155" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D155" s="3"/>
+      <c r="G155" s="3"/>
+    </row>
+    <row r="156" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D156" s="3"/>
+      <c r="G156" s="3"/>
+    </row>
+    <row r="157" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D157" s="3"/>
+      <c r="G157" s="3"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D111:F134">
-    <sortCondition descending="1" ref="F111:F134"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D114:F137">
+    <sortCondition descending="1" ref="F114:F137"/>
   </sortState>
   <mergeCells count="7">
     <mergeCell ref="G4:H4"/>
@@ -6216,7 +6482,7 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -6227,23 +6493,26 @@
   <dimension ref="A1:M297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD12"/>
+      <selection pane="bottomRight" activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
-    <col min="3" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6280,7 +6549,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6297,7 +6566,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -6334,7 +6603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -6351,7 +6620,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -6388,7 +6657,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>792</v>
       </c>
@@ -6406,7 +6675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="8" t="s">
         <v>793</v>
@@ -6425,7 +6694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>794</v>
       </c>
@@ -6443,7 +6712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="8" t="s">
         <v>795</v>
@@ -6462,7 +6731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>796</v>
       </c>
@@ -6480,14 +6749,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E11" s="9"/>
       <c r="H11"/>
       <c r="I11" s="3"/>
       <c r="J11"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>624</v>
       </c>
@@ -6505,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>625</v>
       </c>
@@ -6523,7 +6792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>626</v>
       </c>
@@ -6541,7 +6810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>627</v>
       </c>
@@ -6559,7 +6828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>628</v>
       </c>
@@ -6577,7 +6846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>629</v>
       </c>
@@ -6595,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>630</v>
       </c>
@@ -6613,7 +6882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>631</v>
       </c>
@@ -6631,7 +6900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>632</v>
       </c>
@@ -6649,7 +6918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>633</v>
       </c>
@@ -6667,7 +6936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>634</v>
       </c>
@@ -6685,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>635</v>
       </c>
@@ -6703,7 +6972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>636</v>
       </c>
@@ -6721,7 +6990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>637</v>
       </c>
@@ -6739,7 +7008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>638</v>
       </c>
@@ -6757,7 +7026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>639</v>
       </c>
@@ -6775,7 +7044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>640</v>
       </c>
@@ -6793,7 +7062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>641</v>
       </c>
@@ -6811,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>642</v>
       </c>
@@ -6829,7 +7098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>643</v>
       </c>
@@ -6847,7 +7116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>644</v>
       </c>
@@ -6865,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>645</v>
       </c>
@@ -6883,7 +7152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>646</v>
       </c>
@@ -6901,7 +7170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>647</v>
       </c>
@@ -6919,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>648</v>
       </c>
@@ -6937,7 +7206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>649</v>
       </c>
@@ -6955,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>650</v>
       </c>
@@ -6973,7 +7242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>651</v>
       </c>
@@ -6991,7 +7260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>652</v>
       </c>
@@ -7009,7 +7278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>653</v>
       </c>
@@ -7027,7 +7296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>654</v>
       </c>
@@ -7045,7 +7314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>655</v>
       </c>
@@ -7063,7 +7332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>656</v>
       </c>
@@ -7081,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>657</v>
       </c>
@@ -7099,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>658</v>
       </c>
@@ -7117,7 +7386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>659</v>
       </c>
@@ -7135,7 +7404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>660</v>
       </c>
@@ -7153,7 +7422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>661</v>
       </c>
@@ -7171,7 +7440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>662</v>
       </c>
@@ -7189,7 +7458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>663</v>
       </c>
@@ -7207,7 +7476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>664</v>
       </c>
@@ -7225,7 +7494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>665</v>
       </c>
@@ -7243,7 +7512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>666</v>
       </c>
@@ -7261,7 +7530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>667</v>
       </c>
@@ -7279,7 +7548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>668</v>
       </c>
@@ -7297,7 +7566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>669</v>
       </c>
@@ -7315,7 +7584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>670</v>
       </c>
@@ -7333,7 +7602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>671</v>
       </c>
@@ -7351,7 +7620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>672</v>
       </c>
@@ -7369,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
         <v>673</v>
       </c>
@@ -7387,7 +7656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>674</v>
       </c>
@@ -7405,10 +7674,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E63" s="9"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>582</v>
       </c>
@@ -7425,7 +7694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>583</v>
       </c>
@@ -7442,7 +7711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>584</v>
       </c>
@@ -7459,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>585</v>
       </c>
@@ -7476,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>586</v>
       </c>
@@ -7493,7 +7762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>587</v>
       </c>
@@ -7510,7 +7779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>588</v>
       </c>
@@ -7527,7 +7796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>589</v>
       </c>
@@ -7544,7 +7813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>590</v>
       </c>
@@ -7561,7 +7830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>591</v>
       </c>
@@ -7578,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>592</v>
       </c>
@@ -7595,7 +7864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>593</v>
       </c>
@@ -7612,7 +7881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>594</v>
       </c>
@@ -7629,7 +7898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>595</v>
       </c>
@@ -7646,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>596</v>
       </c>
@@ -7663,7 +7932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>597</v>
       </c>
@@ -7680,7 +7949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>598</v>
       </c>
@@ -7697,7 +7966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>599</v>
       </c>
@@ -7714,7 +7983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>600</v>
       </c>
@@ -7731,7 +8000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>601</v>
       </c>
@@ -7748,7 +8017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>602</v>
       </c>
@@ -7765,7 +8034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>603</v>
       </c>
@@ -7782,7 +8051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>604</v>
       </c>
@@ -7799,7 +8068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>605</v>
       </c>
@@ -7816,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>606</v>
       </c>
@@ -7833,7 +8102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>607</v>
       </c>
@@ -7850,7 +8119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>608</v>
       </c>
@@ -7867,7 +8136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>609</v>
       </c>
@@ -7884,7 +8153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>610</v>
       </c>
@@ -7901,7 +8170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>611</v>
       </c>
@@ -7918,7 +8187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>612</v>
       </c>
@@ -7935,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>613</v>
       </c>
@@ -7952,7 +8221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>614</v>
       </c>
@@ -7969,7 +8238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>615</v>
       </c>
@@ -7986,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>616</v>
       </c>
@@ -8003,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>617</v>
       </c>
@@ -8020,7 +8289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>618</v>
       </c>
@@ -8037,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>619</v>
       </c>
@@ -8054,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>620</v>
       </c>
@@ -8071,7 +8340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>621</v>
       </c>
@@ -8088,7 +8357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>622</v>
       </c>
@@ -8105,7 +8374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>623</v>
       </c>
@@ -8122,10 +8391,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>461</v>
       </c>
@@ -8148,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>466</v>
       </c>
@@ -8171,7 +8440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>469</v>
       </c>
@@ -8194,7 +8463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>472</v>
       </c>
@@ -8217,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>475</v>
       </c>
@@ -8240,7 +8509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>478</v>
       </c>
@@ -8263,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>481</v>
       </c>
@@ -8286,7 +8555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>484</v>
       </c>
@@ -8309,7 +8578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>487</v>
       </c>
@@ -8332,7 +8601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>490</v>
       </c>
@@ -8355,7 +8624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>545</v>
       </c>
@@ -8372,7 +8641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>546</v>
       </c>
@@ -8389,7 +8658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>547</v>
       </c>
@@ -8406,7 +8675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>548</v>
       </c>
@@ -8423,7 +8692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>549</v>
       </c>
@@ -8440,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>550</v>
       </c>
@@ -8457,7 +8726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
         <v>551</v>
       </c>
@@ -8474,7 +8743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>552</v>
       </c>
@@ -8491,7 +8760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>553</v>
       </c>
@@ -8508,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>554</v>
       </c>
@@ -8525,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>555</v>
       </c>
@@ -8542,7 +8811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>556</v>
       </c>
@@ -8559,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>557</v>
       </c>
@@ -8576,7 +8845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>558</v>
       </c>
@@ -8593,7 +8862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>559</v>
       </c>
@@ -8610,7 +8879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>560</v>
       </c>
@@ -8627,7 +8896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>561</v>
       </c>
@@ -8644,7 +8913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>562</v>
       </c>
@@ -8661,7 +8930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>563</v>
       </c>
@@ -8678,7 +8947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>564</v>
       </c>
@@ -8695,7 +8964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>565</v>
       </c>
@@ -8712,7 +8981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>566</v>
       </c>
@@ -8729,7 +8998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>567</v>
       </c>
@@ -8746,7 +9015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>568</v>
       </c>
@@ -8763,7 +9032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>569</v>
       </c>
@@ -8780,7 +9049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>570</v>
       </c>
@@ -8797,7 +9066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>571</v>
       </c>
@@ -8814,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>572</v>
       </c>
@@ -8831,7 +9100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>573</v>
       </c>
@@ -8848,7 +9117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>574</v>
       </c>
@@ -8865,7 +9134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>575</v>
       </c>
@@ -8882,7 +9151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>576</v>
       </c>
@@ -8899,7 +9168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>577</v>
       </c>
@@ -8916,7 +9185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>578</v>
       </c>
@@ -8933,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>579</v>
       </c>
@@ -8950,7 +9219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>580</v>
       </c>
@@ -8967,7 +9236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>581</v>
       </c>
@@ -8984,7 +9253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>496</v>
       </c>
@@ -9001,7 +9270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>497</v>
       </c>
@@ -9018,7 +9287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>498</v>
       </c>
@@ -9035,7 +9304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>499</v>
       </c>
@@ -9052,7 +9321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>500</v>
       </c>
@@ -9069,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>501</v>
       </c>
@@ -9086,7 +9355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>502</v>
       </c>
@@ -9103,7 +9372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>503</v>
       </c>
@@ -9120,7 +9389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>504</v>
       </c>
@@ -9137,7 +9406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>505</v>
       </c>
@@ -9154,7 +9423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>506</v>
       </c>
@@ -9171,7 +9440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>507</v>
       </c>
@@ -9188,7 +9457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>508</v>
       </c>
@@ -9205,7 +9474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>509</v>
       </c>
@@ -9222,7 +9491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>510</v>
       </c>
@@ -9239,7 +9508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>511</v>
       </c>
@@ -9256,7 +9525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>512</v>
       </c>
@@ -9273,7 +9542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>513</v>
       </c>
@@ -9290,7 +9559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>514</v>
       </c>
@@ -9307,7 +9576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>515</v>
       </c>
@@ -9324,7 +9593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>516</v>
       </c>
@@ -9341,7 +9610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>517</v>
       </c>
@@ -9358,7 +9627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>518</v>
       </c>
@@ -9375,7 +9644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>519</v>
       </c>
@@ -9392,7 +9661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>520</v>
       </c>
@@ -9409,7 +9678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>521</v>
       </c>
@@ -9426,7 +9695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>522</v>
       </c>
@@ -9443,7 +9712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>523</v>
       </c>
@@ -9460,7 +9729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>524</v>
       </c>
@@ -9477,7 +9746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>525</v>
       </c>
@@ -9494,7 +9763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>526</v>
       </c>
@@ -9511,7 +9780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>527</v>
       </c>
@@ -9528,7 +9797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>528</v>
       </c>
@@ -9545,7 +9814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>529</v>
       </c>
@@ -9562,7 +9831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>530</v>
       </c>
@@ -9579,7 +9848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>531</v>
       </c>
@@ -9596,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>532</v>
       </c>
@@ -9613,7 +9882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>533</v>
       </c>
@@ -9630,7 +9899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>534</v>
       </c>
@@ -9647,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>535</v>
       </c>
@@ -9664,7 +9933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>536</v>
       </c>
@@ -9681,7 +9950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>537</v>
       </c>
@@ -9698,7 +9967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>538</v>
       </c>
@@ -9715,7 +9984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>539</v>
       </c>
@@ -9732,7 +10001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>540</v>
       </c>
@@ -9749,7 +10018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>675</v>
       </c>
@@ -9766,7 +10035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>676</v>
       </c>
@@ -9783,7 +10052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>677</v>
       </c>
@@ -9800,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>678</v>
       </c>
@@ -9817,7 +10086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>679</v>
       </c>
@@ -9834,7 +10103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>680</v>
       </c>
@@ -9851,7 +10120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>681</v>
       </c>
@@ -9868,7 +10137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>682</v>
       </c>
@@ -9885,7 +10154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>683</v>
       </c>
@@ -9902,7 +10171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>684</v>
       </c>
@@ -9919,7 +10188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>685</v>
       </c>
@@ -9936,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>686</v>
       </c>
@@ -9953,7 +10222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>687</v>
       </c>
@@ -9970,7 +10239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>688</v>
       </c>
@@ -9987,7 +10256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>689</v>
       </c>
@@ -10004,7 +10273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>690</v>
       </c>
@@ -10021,7 +10290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>691</v>
       </c>
@@ -10038,7 +10307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>692</v>
       </c>
@@ -10055,7 +10324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>693</v>
       </c>
@@ -10072,7 +10341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>694</v>
       </c>
@@ -10089,7 +10358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>695</v>
       </c>
@@ -10106,7 +10375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>696</v>
       </c>
@@ -10123,7 +10392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>697</v>
       </c>
@@ -10140,7 +10409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>698</v>
       </c>
@@ -10157,7 +10426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>699</v>
       </c>
@@ -10174,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>700</v>
       </c>
@@ -10191,7 +10460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>701</v>
       </c>
@@ -10208,7 +10477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>702</v>
       </c>
@@ -10225,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>703</v>
       </c>
@@ -10242,7 +10511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>704</v>
       </c>
@@ -10259,7 +10528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>705</v>
       </c>
@@ -10276,7 +10545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>706</v>
       </c>
@@ -10293,7 +10562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>707</v>
       </c>
@@ -10310,7 +10579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>708</v>
       </c>
@@ -10327,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>709</v>
       </c>
@@ -10344,7 +10613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>710</v>
       </c>
@@ -10361,7 +10630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>711</v>
       </c>
@@ -10378,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>712</v>
       </c>
@@ -10395,7 +10664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>713</v>
       </c>
@@ -10412,7 +10681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>714</v>
       </c>
@@ -10429,7 +10698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>715</v>
       </c>
@@ -10446,7 +10715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>716</v>
       </c>
@@ -10463,7 +10732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>717</v>
       </c>
@@ -10480,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>718</v>
       </c>
@@ -10497,7 +10766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>719</v>
       </c>
@@ -10514,7 +10783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>720</v>
       </c>
@@ -10531,7 +10800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>721</v>
       </c>
@@ -10548,7 +10817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>722</v>
       </c>
@@ -10565,7 +10834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>723</v>
       </c>
@@ -10582,7 +10851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>724</v>
       </c>
@@ -10599,7 +10868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>725</v>
       </c>
@@ -10616,7 +10885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>726</v>
       </c>
@@ -10633,7 +10902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>727</v>
       </c>
@@ -10650,7 +10919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>728</v>
       </c>
@@ -10667,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>729</v>
       </c>
@@ -10684,7 +10953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>730</v>
       </c>
@@ -10701,7 +10970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>731</v>
       </c>
@@ -10718,7 +10987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>732</v>
       </c>
@@ -10735,7 +11004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>733</v>
       </c>
@@ -10752,7 +11021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>734</v>
       </c>
@@ -10769,7 +11038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>735</v>
       </c>
@@ -10786,7 +11055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>736</v>
       </c>
@@ -10803,7 +11072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>737</v>
       </c>
@@ -10820,7 +11089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>738</v>
       </c>
@@ -10837,7 +11106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>739</v>
       </c>
@@ -10854,7 +11123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>740</v>
       </c>
@@ -10871,7 +11140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>741</v>
       </c>
@@ -10888,7 +11157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>742</v>
       </c>
@@ -10905,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>743</v>
       </c>
@@ -10922,7 +11191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>744</v>
       </c>
@@ -10939,7 +11208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>745</v>
       </c>
@@ -10956,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>746</v>
       </c>
@@ -10973,7 +11242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>747</v>
       </c>
@@ -10990,7 +11259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>748</v>
       </c>
@@ -11007,7 +11276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>749</v>
       </c>
@@ -11024,10 +11293,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B277" s="8" t="s">
         <v>750</v>
       </c>
+      <c r="E277" t="s">
+        <v>812</v>
+      </c>
       <c r="G277" t="s">
         <v>771</v>
       </c>
@@ -11044,10 +11316,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B278" s="8" t="s">
         <v>751</v>
       </c>
+      <c r="E278" t="s">
+        <v>813</v>
+      </c>
       <c r="G278" t="s">
         <v>772</v>
       </c>
@@ -11064,10 +11339,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B279" s="8" t="s">
         <v>752</v>
       </c>
+      <c r="E279" t="s">
+        <v>814</v>
+      </c>
       <c r="G279" t="s">
         <v>773</v>
       </c>
@@ -11084,10 +11362,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B280" s="8" t="s">
         <v>753</v>
       </c>
+      <c r="E280" t="s">
+        <v>815</v>
+      </c>
       <c r="G280" t="s">
         <v>774</v>
       </c>
@@ -11104,10 +11385,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B281" s="8" t="s">
         <v>754</v>
       </c>
+      <c r="E281" t="s">
+        <v>816</v>
+      </c>
       <c r="G281" t="s">
         <v>775</v>
       </c>
@@ -11124,10 +11408,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B282" s="8" t="s">
         <v>755</v>
       </c>
+      <c r="E282" t="s">
+        <v>817</v>
+      </c>
       <c r="G282" t="s">
         <v>776</v>
       </c>
@@ -11144,10 +11431,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B283" s="8" t="s">
         <v>756</v>
       </c>
+      <c r="E283" t="s">
+        <v>818</v>
+      </c>
       <c r="G283" t="s">
         <v>777</v>
       </c>
@@ -11164,10 +11454,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B284" s="8" t="s">
         <v>757</v>
       </c>
+      <c r="E284" t="s">
+        <v>819</v>
+      </c>
       <c r="G284" t="s">
         <v>778</v>
       </c>
@@ -11184,10 +11477,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B285" s="8" t="s">
         <v>758</v>
       </c>
+      <c r="E285" t="s">
+        <v>820</v>
+      </c>
       <c r="G285" t="s">
         <v>779</v>
       </c>
@@ -11204,10 +11500,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B286" s="8" t="s">
         <v>759</v>
       </c>
+      <c r="E286" t="s">
+        <v>821</v>
+      </c>
       <c r="G286" t="s">
         <v>780</v>
       </c>
@@ -11224,10 +11523,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B287" s="8" t="s">
         <v>760</v>
       </c>
+      <c r="E287" t="s">
+        <v>822</v>
+      </c>
       <c r="G287" t="s">
         <v>781</v>
       </c>
@@ -11244,10 +11546,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B288" s="8" t="s">
         <v>761</v>
       </c>
+      <c r="E288" t="s">
+        <v>823</v>
+      </c>
       <c r="G288" t="s">
         <v>782</v>
       </c>
@@ -11264,10 +11569,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B289" s="8" t="s">
         <v>762</v>
       </c>
+      <c r="E289" s="3" t="s">
+        <v>829</v>
+      </c>
       <c r="G289" t="s">
         <v>783</v>
       </c>
@@ -11284,10 +11592,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B290" s="8" t="s">
         <v>763</v>
       </c>
+      <c r="E290" t="s">
+        <v>824</v>
+      </c>
       <c r="G290" t="s">
         <v>784</v>
       </c>
@@ -11304,10 +11615,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B291" s="8" t="s">
         <v>764</v>
       </c>
+      <c r="E291" t="s">
+        <v>825</v>
+      </c>
       <c r="G291" t="s">
         <v>785</v>
       </c>
@@ -11324,10 +11638,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B292" s="8" t="s">
         <v>765</v>
       </c>
+      <c r="E292" t="s">
+        <v>826</v>
+      </c>
       <c r="G292" t="s">
         <v>786</v>
       </c>
@@ -11344,10 +11661,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B293" s="8" t="s">
         <v>766</v>
       </c>
+      <c r="E293" t="s">
+        <v>827</v>
+      </c>
       <c r="G293" t="s">
         <v>787</v>
       </c>
@@ -11364,10 +11684,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B294" s="8" t="s">
         <v>767</v>
       </c>
+      <c r="E294" t="s">
+        <v>828</v>
+      </c>
       <c r="G294" t="s">
         <v>788</v>
       </c>
@@ -11384,10 +11707,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B295" s="8" t="s">
         <v>768</v>
       </c>
+      <c r="E295" t="s">
+        <v>830</v>
+      </c>
       <c r="G295" t="s">
         <v>789</v>
       </c>
@@ -11404,10 +11730,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B296" s="8" t="s">
         <v>769</v>
       </c>
+      <c r="E296" t="s">
+        <v>831</v>
+      </c>
       <c r="G296" t="s">
         <v>790</v>
       </c>
@@ -11424,9 +11753,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B297" s="8" t="s">
         <v>770</v>
+      </c>
+      <c r="E297" t="s">
+        <v>832</v>
       </c>
       <c r="G297" t="s">
         <v>791</v>
@@ -11454,7 +11786,7 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/ItemConfig/ItemCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ItemConfig/ItemCfg.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ItemConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41B7587-34A3-47E7-9E84-B322EDC1F787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4C12EC-6F96-4D64-B06F-4A69ADAF1C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
     <sheet name="Monster" sheetId="2" r:id="rId2"/>
+    <sheet name="AvatarFrame" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="888">
   <si>
     <t>##var</t>
   </si>
@@ -2664,12 +2676,181 @@
   <si>
     <t>Text_Key_Desc_Monster_Niao3</t>
   </si>
+  <si>
+    <t>Monster_Offline_1_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_2_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_2_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_3_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_3_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_4_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_4_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_5_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_5_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_6_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_6_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_7_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_7_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_8_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_8_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_9_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_9_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_10_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_10_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_11_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_11_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_12_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_13_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_13_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_14_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_14_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_15_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_15_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_15_3</t>
+  </si>
+  <si>
+    <t>Monster_Offline_16_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_16_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_17_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_17_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_18_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_18_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_18_3</t>
+  </si>
+  <si>
+    <t>Monster_Offline_19_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_19_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_19_3</t>
+  </si>
+  <si>
+    <t>Monster_Offline_20_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_20_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_20_3</t>
+  </si>
+  <si>
+    <t>AvatarFrame_01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarFrame_03</t>
+  </si>
+  <si>
+    <t>AvatarFrame_04</t>
+  </si>
+  <si>
+    <t>AvatarFrameType1</t>
+  </si>
+  <si>
+    <t>AvatarFrame</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame01</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame02</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame03</t>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame04</t>
+  </si>
+  <si>
+    <t>AvatarFrame_02</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>AvatarFrame_None</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_AvatarFrame_None</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2733,6 +2914,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3132,9 +3320,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA157"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L83" sqref="L83"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3143,7 +3331,7 @@
     <col min="2" max="2" width="4.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="34.77734375" customWidth="1"/>
     <col min="6" max="6" width="16.109375" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="20.21875" customWidth="1"/>
@@ -3397,6 +3585,9 @@
       <c r="M6" t="b">
         <v>1</v>
       </c>
+      <c r="N6">
+        <v>40999</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
@@ -3423,6 +3614,9 @@
       <c r="M7" t="b">
         <v>1</v>
       </c>
+      <c r="N7">
+        <v>40001</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
@@ -3449,6 +3643,9 @@
       <c r="M8" t="b">
         <v>1</v>
       </c>
+      <c r="N8">
+        <v>40002</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
@@ -3475,6 +3672,9 @@
       <c r="M9" t="b">
         <v>1</v>
       </c>
+      <c r="N9">
+        <v>40003</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
@@ -3501,6 +3701,9 @@
       <c r="M10" t="b">
         <v>1</v>
       </c>
+      <c r="N10">
+        <v>40004</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
@@ -3530,6 +3733,9 @@
       <c r="M11" t="b">
         <v>1</v>
       </c>
+      <c r="N11">
+        <v>30001</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
@@ -3559,6 +3765,9 @@
       <c r="M12" t="b">
         <v>1</v>
       </c>
+      <c r="N12">
+        <v>30002</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
@@ -3588,6 +3797,9 @@
       <c r="M13" t="b">
         <v>1</v>
       </c>
+      <c r="N13">
+        <v>30003</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
@@ -3617,6 +3829,9 @@
       <c r="M14" t="b">
         <v>1</v>
       </c>
+      <c r="N14">
+        <v>30001</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
@@ -3646,6 +3861,9 @@
       <c r="M15" t="b">
         <v>1</v>
       </c>
+      <c r="N15">
+        <v>30002</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
@@ -3675,8 +3893,11 @@
       <c r="M16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>77</v>
       </c>
@@ -3704,8 +3925,11 @@
       <c r="M17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>83</v>
       </c>
@@ -3733,8 +3957,11 @@
       <c r="M18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>87</v>
       </c>
@@ -3762,8 +3989,11 @@
       <c r="M19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>91</v>
       </c>
@@ -3791,8 +4021,11 @@
       <c r="M20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>97</v>
       </c>
@@ -3820,8 +4053,11 @@
       <c r="M21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>101</v>
       </c>
@@ -3849,8 +4085,11 @@
       <c r="M22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>105</v>
       </c>
@@ -3878,8 +4117,11 @@
       <c r="M23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>110</v>
       </c>
@@ -3907,8 +4149,11 @@
       <c r="M24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>114</v>
       </c>
@@ -3936,8 +4181,11 @@
       <c r="M25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>118</v>
       </c>
@@ -3965,8 +4213,11 @@
       <c r="M26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>123</v>
       </c>
@@ -3994,8 +4245,11 @@
       <c r="M27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>127</v>
       </c>
@@ -4023,8 +4277,11 @@
       <c r="M28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>131</v>
       </c>
@@ -4052,8 +4309,11 @@
       <c r="M29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>136</v>
       </c>
@@ -4081,8 +4341,11 @@
       <c r="M30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>140</v>
       </c>
@@ -4110,8 +4373,11 @@
       <c r="M31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>144</v>
       </c>
@@ -4139,8 +4405,11 @@
       <c r="M32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>149</v>
       </c>
@@ -4168,8 +4437,11 @@
       <c r="M33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>153</v>
       </c>
@@ -4197,8 +4469,11 @@
       <c r="M34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>157</v>
       </c>
@@ -4226,8 +4501,11 @@
       <c r="M35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>162</v>
       </c>
@@ -4255,8 +4533,11 @@
       <c r="M36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="37" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>166</v>
       </c>
@@ -4284,8 +4565,11 @@
       <c r="M37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>170</v>
       </c>
@@ -4313,8 +4597,11 @@
       <c r="M38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>175</v>
       </c>
@@ -4342,8 +4629,11 @@
       <c r="M39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>179</v>
       </c>
@@ -4371,8 +4661,11 @@
       <c r="M40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>183</v>
       </c>
@@ -4400,8 +4693,11 @@
       <c r="M41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>188</v>
       </c>
@@ -4429,8 +4725,11 @@
       <c r="M42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>192</v>
       </c>
@@ -4458,8 +4757,11 @@
       <c r="M43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>196</v>
       </c>
@@ -4487,8 +4789,11 @@
       <c r="M44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>201</v>
       </c>
@@ -4516,8 +4821,11 @@
       <c r="M45" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>205</v>
       </c>
@@ -4545,8 +4853,11 @@
       <c r="M46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="47" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>209</v>
       </c>
@@ -4574,8 +4885,11 @@
       <c r="M47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="48" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>214</v>
       </c>
@@ -4603,8 +4917,11 @@
       <c r="M48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>218</v>
       </c>
@@ -4632,8 +4949,11 @@
       <c r="M49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>222</v>
       </c>
@@ -4661,8 +4981,11 @@
       <c r="M50" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>227</v>
       </c>
@@ -4690,8 +5013,11 @@
       <c r="M51" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="52" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>231</v>
       </c>
@@ -4719,8 +5045,11 @@
       <c r="M52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>235</v>
       </c>
@@ -4748,8 +5077,11 @@
       <c r="M53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>240</v>
       </c>
@@ -4777,8 +5109,11 @@
       <c r="M54" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>244</v>
       </c>
@@ -4806,8 +5141,11 @@
       <c r="M55" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="56" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>248</v>
       </c>
@@ -4835,8 +5173,11 @@
       <c r="M56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N56">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="57" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>253</v>
       </c>
@@ -4864,8 +5205,11 @@
       <c r="M57" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N57">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="58" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>257</v>
       </c>
@@ -4893,8 +5237,11 @@
       <c r="M58" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N58">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="59" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>261</v>
       </c>
@@ -4922,8 +5269,11 @@
       <c r="M59" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N59">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="60" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>266</v>
       </c>
@@ -4951,8 +5301,11 @@
       <c r="M60" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N60">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="61" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>270</v>
       </c>
@@ -4980,8 +5333,11 @@
       <c r="M61" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N61">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="62" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>274</v>
       </c>
@@ -5009,8 +5365,11 @@
       <c r="M62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N62">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="63" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>279</v>
       </c>
@@ -5038,8 +5397,11 @@
       <c r="M63" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N63">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="64" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>283</v>
       </c>
@@ -5067,8 +5429,11 @@
       <c r="M64" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N64">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="65" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>287</v>
       </c>
@@ -5096,8 +5461,11 @@
       <c r="M65" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N65">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="66" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>292</v>
       </c>
@@ -5125,8 +5493,11 @@
       <c r="M66" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N66">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="67" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>296</v>
       </c>
@@ -5154,8 +5525,11 @@
       <c r="M67" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N67">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="68" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>300</v>
       </c>
@@ -5183,8 +5557,11 @@
       <c r="M68" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N68">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="69" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>305</v>
       </c>
@@ -5212,8 +5589,11 @@
       <c r="M69" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N69">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="70" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>309</v>
       </c>
@@ -5241,8 +5621,11 @@
       <c r="M70" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N70">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="71" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>313</v>
       </c>
@@ -5270,8 +5653,11 @@
       <c r="M71" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N71">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="72" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>318</v>
       </c>
@@ -5299,8 +5685,11 @@
       <c r="M72" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N72">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="73" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>322</v>
       </c>
@@ -5328,8 +5717,11 @@
       <c r="M73" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N73">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="74" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>326</v>
       </c>
@@ -5357,8 +5749,11 @@
       <c r="M74" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N74">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="75" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>331</v>
       </c>
@@ -5386,8 +5781,11 @@
       <c r="M75" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N75">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="76" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>335</v>
       </c>
@@ -5415,8 +5813,11 @@
       <c r="M76" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N76">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="77" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>339</v>
       </c>
@@ -5444,8 +5845,11 @@
       <c r="M77" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N77">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="78" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>344</v>
       </c>
@@ -5473,8 +5877,11 @@
       <c r="M78" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N78">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="79" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>348</v>
       </c>
@@ -5502,8 +5909,11 @@
       <c r="M79" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N79">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="80" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>352</v>
       </c>
@@ -5531,8 +5941,11 @@
       <c r="M80" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N80">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="81" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>357</v>
       </c>
@@ -5560,8 +5973,11 @@
       <c r="M81" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N81">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="82" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>361</v>
       </c>
@@ -5589,8 +6005,11 @@
       <c r="M82" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N82">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="83" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>797</v>
       </c>
@@ -5618,8 +6037,11 @@
       <c r="M83" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N83">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="84" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>798</v>
       </c>
@@ -5647,8 +6069,11 @@
       <c r="M84" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N84">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="85" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>799</v>
       </c>
@@ -5676,8 +6101,11 @@
       <c r="M85" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N85">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="87" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>365</v>
       </c>
@@ -5705,8 +6133,11 @@
       <c r="M87" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N87">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="88" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>369</v>
       </c>
@@ -5734,8 +6165,11 @@
       <c r="M88" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N88">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="89" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>373</v>
       </c>
@@ -5763,8 +6197,11 @@
       <c r="M89" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N89">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="90" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>377</v>
       </c>
@@ -5792,8 +6229,11 @@
       <c r="M90" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N90">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="91" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>381</v>
       </c>
@@ -5821,8 +6261,11 @@
       <c r="M91" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N91">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="92" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>385</v>
       </c>
@@ -5850,8 +6293,11 @@
       <c r="M92" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N92">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="93" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>389</v>
       </c>
@@ -5879,8 +6325,11 @@
       <c r="M93" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N93">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="94" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>393</v>
       </c>
@@ -5908,8 +6357,11 @@
       <c r="M94" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N94">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="95" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>397</v>
       </c>
@@ -5937,8 +6389,11 @@
       <c r="M95" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N95">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="96" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>401</v>
       </c>
@@ -5966,8 +6421,11 @@
       <c r="M96" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N96">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="97" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>405</v>
       </c>
@@ -5995,8 +6453,11 @@
       <c r="M97" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N97">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="98" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>409</v>
       </c>
@@ -6024,8 +6485,11 @@
       <c r="M98" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N98">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="99" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>413</v>
       </c>
@@ -6053,8 +6517,11 @@
       <c r="M99" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N99">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="100" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>417</v>
       </c>
@@ -6082,8 +6549,11 @@
       <c r="M100" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N100">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="101" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>421</v>
       </c>
@@ -6111,8 +6581,11 @@
       <c r="M101" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N101">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="102" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>425</v>
       </c>
@@ -6140,8 +6613,11 @@
       <c r="M102" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N102">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="103" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>429</v>
       </c>
@@ -6169,8 +6645,11 @@
       <c r="M103" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N103">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="104" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>433</v>
       </c>
@@ -6198,8 +6677,11 @@
       <c r="M104" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N104">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="105" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>437</v>
       </c>
@@ -6227,8 +6709,11 @@
       <c r="M105" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N105">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="106" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>441</v>
       </c>
@@ -6256,8 +6741,11 @@
       <c r="M106" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N106">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="107" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>445</v>
       </c>
@@ -6285,8 +6773,11 @@
       <c r="M107" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N107">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="108" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>449</v>
       </c>
@@ -6314,8 +6805,11 @@
       <c r="M108" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N108">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="109" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
         <v>453</v>
       </c>
@@ -6343,8 +6837,11 @@
       <c r="M109" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="N109">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="110" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>457</v>
       </c>
@@ -6371,6 +6868,9 @@
       </c>
       <c r="M110" t="b">
         <v>1</v>
+      </c>
+      <c r="N110">
+        <v>30003</v>
       </c>
     </row>
     <row r="134" spans="4:7" x14ac:dyDescent="0.25">
@@ -6490,13 +6990,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M297"/>
+  <dimension ref="A1:M340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C103" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H111" sqref="H111"/>
+      <selection pane="bottomRight" sqref="A1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6674,6 +7174,10 @@
       <c r="K6" t="b">
         <v>1</v>
       </c>
+      <c r="L6" s="8">
+        <f>RIGHT(B6,1)+LEFT(RIGHT(B6,3),1)*10+20000</f>
+        <v>20011</v>
+      </c>
     </row>
     <row r="7" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -6693,6 +7197,10 @@
       <c r="K7" t="b">
         <v>1</v>
       </c>
+      <c r="L7" s="8">
+        <f t="shared" ref="L7:L10" si="0">RIGHT(B7,1)+LEFT(RIGHT(B7,3),1)*10+20000</f>
+        <v>20021</v>
+      </c>
     </row>
     <row r="8" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
@@ -6710,6 +7218,10 @@
       </c>
       <c r="K8" t="b">
         <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="0"/>
+        <v>20031</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6730,6 +7242,10 @@
       <c r="K9" t="b">
         <v>1</v>
       </c>
+      <c r="L9" s="8">
+        <f t="shared" si="0"/>
+        <v>20032</v>
+      </c>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
@@ -6747,6 +7263,10 @@
       </c>
       <c r="K10" t="b">
         <v>1</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="0"/>
+        <v>20033</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6773,6 +7293,10 @@
       <c r="K12" t="b">
         <v>1</v>
       </c>
+      <c r="L12" s="8">
+        <f>RIGHT(B12,1)+LEFT(RIGHT(B12,3),1)*10+20000</f>
+        <v>20011</v>
+      </c>
     </row>
     <row r="13" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
@@ -6791,6 +7315,10 @@
       <c r="K13" t="b">
         <v>1</v>
       </c>
+      <c r="L13" s="8">
+        <f t="shared" ref="L13:L62" si="1">RIGHT(B13,1)+LEFT(RIGHT(B13,3),1)*10+20000</f>
+        <v>20021</v>
+      </c>
     </row>
     <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
@@ -6809,6 +7337,10 @@
       <c r="K14" t="b">
         <v>1</v>
       </c>
+      <c r="L14" s="8">
+        <f t="shared" si="1"/>
+        <v>20031</v>
+      </c>
     </row>
     <row r="15" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -6827,6 +7359,10 @@
       <c r="K15" t="b">
         <v>1</v>
       </c>
+      <c r="L15" s="8">
+        <f t="shared" si="1"/>
+        <v>20032</v>
+      </c>
     </row>
     <row r="16" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
@@ -6845,8 +7381,12 @@
       <c r="K16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="8">
+        <f t="shared" si="1"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>629</v>
       </c>
@@ -6863,8 +7403,12 @@
       <c r="K17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="8">
+        <f t="shared" si="1"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>630</v>
       </c>
@@ -6881,8 +7425,12 @@
       <c r="K18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="8">
+        <f t="shared" si="1"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>631</v>
       </c>
@@ -6899,8 +7447,12 @@
       <c r="K19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="8">
+        <f t="shared" si="1"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>632</v>
       </c>
@@ -6917,8 +7469,12 @@
       <c r="K20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="8">
+        <f t="shared" si="1"/>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>633</v>
       </c>
@@ -6935,8 +7491,12 @@
       <c r="K21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="8">
+        <f t="shared" si="1"/>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>634</v>
       </c>
@@ -6953,8 +7513,12 @@
       <c r="K22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="8">
+        <f t="shared" si="1"/>
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>635</v>
       </c>
@@ -6971,8 +7535,12 @@
       <c r="K23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="8">
+        <f t="shared" si="1"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>636</v>
       </c>
@@ -6989,8 +7557,12 @@
       <c r="K24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="8">
+        <f t="shared" si="1"/>
+        <v>20032</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>637</v>
       </c>
@@ -7007,8 +7579,12 @@
       <c r="K25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="8">
+        <f t="shared" si="1"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>638</v>
       </c>
@@ -7025,8 +7601,12 @@
       <c r="K26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="8">
+        <f t="shared" si="1"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>639</v>
       </c>
@@ -7043,8 +7623,12 @@
       <c r="K27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="8">
+        <f t="shared" si="1"/>
+        <v>20043</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>640</v>
       </c>
@@ -7061,8 +7645,12 @@
       <c r="K28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="8">
+        <f t="shared" si="1"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>641</v>
       </c>
@@ -7079,8 +7667,12 @@
       <c r="K29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="8">
+        <f t="shared" si="1"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>642</v>
       </c>
@@ -7097,8 +7689,12 @@
       <c r="K30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="8">
+        <f t="shared" si="1"/>
+        <v>20053</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>643</v>
       </c>
@@ -7115,8 +7711,12 @@
       <c r="K31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="8">
+        <f t="shared" si="1"/>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>644</v>
       </c>
@@ -7133,8 +7733,12 @@
       <c r="K32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="8">
+        <f t="shared" si="1"/>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>645</v>
       </c>
@@ -7151,8 +7755,12 @@
       <c r="K33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="8">
+        <f t="shared" si="1"/>
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>646</v>
       </c>
@@ -7169,8 +7777,12 @@
       <c r="K34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="8">
+        <f t="shared" si="1"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>647</v>
       </c>
@@ -7187,8 +7799,12 @@
       <c r="K35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="8">
+        <f t="shared" si="1"/>
+        <v>20032</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>648</v>
       </c>
@@ -7205,8 +7821,12 @@
       <c r="K36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="8">
+        <f t="shared" si="1"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>649</v>
       </c>
@@ -7223,8 +7843,12 @@
       <c r="K37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="8">
+        <f t="shared" si="1"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>650</v>
       </c>
@@ -7241,8 +7865,12 @@
       <c r="K38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="8">
+        <f t="shared" si="1"/>
+        <v>20043</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>651</v>
       </c>
@@ -7259,8 +7887,12 @@
       <c r="K39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="8">
+        <f t="shared" si="1"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>652</v>
       </c>
@@ -7277,8 +7909,12 @@
       <c r="K40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="8">
+        <f t="shared" si="1"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>653</v>
       </c>
@@ -7295,8 +7931,12 @@
       <c r="K41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="8">
+        <f t="shared" si="1"/>
+        <v>20053</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>654</v>
       </c>
@@ -7313,8 +7953,12 @@
       <c r="K42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="8">
+        <f t="shared" si="1"/>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>655</v>
       </c>
@@ -7331,8 +7975,12 @@
       <c r="K43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="8">
+        <f t="shared" si="1"/>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>656</v>
       </c>
@@ -7349,8 +7997,12 @@
       <c r="K44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L44" s="8">
+        <f t="shared" si="1"/>
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>657</v>
       </c>
@@ -7367,8 +8019,12 @@
       <c r="K45" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="8">
+        <f t="shared" si="1"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>658</v>
       </c>
@@ -7385,8 +8041,12 @@
       <c r="K46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="8">
+        <f t="shared" si="1"/>
+        <v>20032</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>659</v>
       </c>
@@ -7403,8 +8063,12 @@
       <c r="K47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L47" s="8">
+        <f t="shared" si="1"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>660</v>
       </c>
@@ -7421,8 +8085,12 @@
       <c r="K48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L48" s="8">
+        <f t="shared" si="1"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>661</v>
       </c>
@@ -7439,8 +8107,12 @@
       <c r="K49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="8">
+        <f t="shared" si="1"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>662</v>
       </c>
@@ -7457,8 +8129,12 @@
       <c r="K50" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="8">
+        <f t="shared" si="1"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>663</v>
       </c>
@@ -7475,8 +8151,12 @@
       <c r="K51" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L51" s="8">
+        <f t="shared" si="1"/>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>664</v>
       </c>
@@ -7493,8 +8173,12 @@
       <c r="K52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L52" s="8">
+        <f t="shared" si="1"/>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>665</v>
       </c>
@@ -7511,8 +8195,12 @@
       <c r="K53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L53" s="8">
+        <f t="shared" si="1"/>
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>666</v>
       </c>
@@ -7529,8 +8217,12 @@
       <c r="K54" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L54" s="8">
+        <f t="shared" si="1"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>667</v>
       </c>
@@ -7547,8 +8239,12 @@
       <c r="K55" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L55" s="8">
+        <f t="shared" si="1"/>
+        <v>20032</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>668</v>
       </c>
@@ -7565,8 +8261,12 @@
       <c r="K56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L56" s="8">
+        <f t="shared" si="1"/>
+        <v>20033</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>669</v>
       </c>
@@ -7583,8 +8283,12 @@
       <c r="K57" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L57" s="8">
+        <f t="shared" si="1"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>670</v>
       </c>
@@ -7601,8 +8305,12 @@
       <c r="K58" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L58" s="8">
+        <f t="shared" si="1"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>671</v>
       </c>
@@ -7619,8 +8327,12 @@
       <c r="K59" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L59" s="8">
+        <f t="shared" si="1"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>672</v>
       </c>
@@ -7637,8 +8349,12 @@
       <c r="K60" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L60" s="8">
+        <f t="shared" si="1"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
         <v>673</v>
       </c>
@@ -7655,8 +8371,12 @@
       <c r="K61" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L61" s="8">
+        <f t="shared" si="1"/>
+        <v>20053</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>674</v>
       </c>
@@ -7673,11 +8393,15 @@
       <c r="K62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L62" s="8">
+        <f t="shared" si="1"/>
+        <v>20054</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E63" s="9"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>582</v>
       </c>
@@ -7693,8 +8417,12 @@
       <c r="K64" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="8">
+        <f>RIGHT(B64,1)+LEFT(RIGHT(B64,3),1)*10+20000</f>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>583</v>
       </c>
@@ -7710,8 +8438,12 @@
       <c r="K65" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="8">
+        <f t="shared" ref="L65:L128" si="2">RIGHT(B65,1)+LEFT(RIGHT(B65,3),1)*10+20000</f>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>584</v>
       </c>
@@ -7727,8 +8459,12 @@
       <c r="K66" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="8">
+        <f t="shared" si="2"/>
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>585</v>
       </c>
@@ -7744,8 +8480,12 @@
       <c r="K67" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="8">
+        <f t="shared" si="2"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>586</v>
       </c>
@@ -7761,8 +8501,12 @@
       <c r="K68" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="8">
+        <f t="shared" si="2"/>
+        <v>20032</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>587</v>
       </c>
@@ -7778,8 +8522,12 @@
       <c r="K69" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="8">
+        <f t="shared" si="2"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>588</v>
       </c>
@@ -7795,8 +8543,12 @@
       <c r="K70" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="8">
+        <f t="shared" si="2"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>589</v>
       </c>
@@ -7812,8 +8564,12 @@
       <c r="K71" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="8">
+        <f t="shared" si="2"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>590</v>
       </c>
@@ -7829,8 +8585,12 @@
       <c r="K72" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="8">
+        <f t="shared" si="2"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>591</v>
       </c>
@@ -7846,8 +8606,12 @@
       <c r="K73" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="8">
+        <f t="shared" si="2"/>
+        <v>20061</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>592</v>
       </c>
@@ -7863,8 +8627,12 @@
       <c r="K74" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="8">
+        <f t="shared" si="2"/>
+        <v>20062</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>593</v>
       </c>
@@ -7880,8 +8648,12 @@
       <c r="K75" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="8">
+        <f t="shared" si="2"/>
+        <v>20071</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>594</v>
       </c>
@@ -7897,8 +8669,12 @@
       <c r="K76" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="8">
+        <f t="shared" si="2"/>
+        <v>20072</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>595</v>
       </c>
@@ -7914,8 +8690,12 @@
       <c r="K77" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="8">
+        <f t="shared" si="2"/>
+        <v>20081</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>596</v>
       </c>
@@ -7931,8 +8711,12 @@
       <c r="K78" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="8">
+        <f t="shared" si="2"/>
+        <v>20082</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>597</v>
       </c>
@@ -7948,8 +8732,12 @@
       <c r="K79" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="8">
+        <f t="shared" si="2"/>
+        <v>20091</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>598</v>
       </c>
@@ -7965,8 +8753,12 @@
       <c r="K80" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="8">
+        <f t="shared" si="2"/>
+        <v>20092</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>599</v>
       </c>
@@ -7982,8 +8774,12 @@
       <c r="K81" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="8">
+        <f t="shared" si="2"/>
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>600</v>
       </c>
@@ -7999,8 +8795,12 @@
       <c r="K82" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="8">
+        <f t="shared" si="2"/>
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>601</v>
       </c>
@@ -8016,8 +8816,12 @@
       <c r="K83" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="8">
+        <f t="shared" si="2"/>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>602</v>
       </c>
@@ -8033,8 +8837,12 @@
       <c r="K84" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="8">
+        <f t="shared" si="2"/>
+        <v>20012</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>603</v>
       </c>
@@ -8050,8 +8858,12 @@
       <c r="K85" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="8">
+        <f t="shared" si="2"/>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>604</v>
       </c>
@@ -8067,8 +8879,12 @@
       <c r="K86" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="8">
+        <f t="shared" si="2"/>
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>605</v>
       </c>
@@ -8084,8 +8900,12 @@
       <c r="K87" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="8">
+        <f t="shared" si="2"/>
+        <v>20023</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>606</v>
       </c>
@@ -8101,8 +8921,12 @@
       <c r="K88" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="8">
+        <f t="shared" si="2"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>607</v>
       </c>
@@ -8118,8 +8942,12 @@
       <c r="K89" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="8">
+        <f t="shared" si="2"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>608</v>
       </c>
@@ -8135,8 +8963,12 @@
       <c r="K90" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="8">
+        <f t="shared" si="2"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>609</v>
       </c>
@@ -8152,8 +8984,12 @@
       <c r="K91" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="8">
+        <f t="shared" si="2"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>610</v>
       </c>
@@ -8169,8 +9005,12 @@
       <c r="K92" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="8">
+        <f t="shared" si="2"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>611</v>
       </c>
@@ -8186,8 +9026,12 @@
       <c r="K93" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="8">
+        <f t="shared" si="2"/>
+        <v>20061</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>612</v>
       </c>
@@ -8203,8 +9047,12 @@
       <c r="K94" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="8">
+        <f t="shared" si="2"/>
+        <v>20062</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>613</v>
       </c>
@@ -8220,8 +9068,12 @@
       <c r="K95" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="8">
+        <f t="shared" si="2"/>
+        <v>20071</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>614</v>
       </c>
@@ -8237,8 +9089,12 @@
       <c r="K96" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L96" s="8">
+        <f t="shared" si="2"/>
+        <v>20072</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>615</v>
       </c>
@@ -8254,8 +9110,12 @@
       <c r="K97" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L97" s="8">
+        <f t="shared" si="2"/>
+        <v>20081</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>616</v>
       </c>
@@ -8271,8 +9131,12 @@
       <c r="K98" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L98" s="8">
+        <f t="shared" si="2"/>
+        <v>20082</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>617</v>
       </c>
@@ -8288,8 +9152,12 @@
       <c r="K99" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L99" s="8">
+        <f t="shared" si="2"/>
+        <v>20091</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>618</v>
       </c>
@@ -8305,8 +9173,12 @@
       <c r="K100" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L100" s="8">
+        <f t="shared" si="2"/>
+        <v>20092</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>619</v>
       </c>
@@ -8322,8 +9194,12 @@
       <c r="K101" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L101" s="8">
+        <f t="shared" si="2"/>
+        <v>20093</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>620</v>
       </c>
@@ -8339,8 +9215,12 @@
       <c r="K102" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L102" s="8">
+        <f t="shared" si="2"/>
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>621</v>
       </c>
@@ -8356,8 +9236,12 @@
       <c r="K103" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L103" s="8">
+        <f t="shared" si="2"/>
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>622</v>
       </c>
@@ -8373,8 +9257,12 @@
       <c r="K104" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L104" s="8">
+        <f t="shared" si="2"/>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>623</v>
       </c>
@@ -8390,11 +9278,16 @@
       <c r="K105" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L105" s="8">
+        <f t="shared" si="2"/>
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I106" s="3"/>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L106" s="8"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>461</v>
       </c>
@@ -8416,8 +9309,12 @@
       <c r="K107" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L107" s="8">
+        <f t="shared" si="2"/>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>466</v>
       </c>
@@ -8439,8 +9336,12 @@
       <c r="K108" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L108" s="8">
+        <f t="shared" si="2"/>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>469</v>
       </c>
@@ -8462,8 +9363,12 @@
       <c r="K109" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L109" s="8">
+        <f t="shared" si="2"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>472</v>
       </c>
@@ -8485,8 +9390,12 @@
       <c r="K110" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L110" s="8">
+        <f t="shared" si="2"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>475</v>
       </c>
@@ -8508,8 +9417,12 @@
       <c r="K111" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L111" s="8">
+        <f t="shared" si="2"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>478</v>
       </c>
@@ -8531,8 +9444,12 @@
       <c r="K112" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L112" s="8">
+        <f t="shared" si="2"/>
+        <v>20061</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>481</v>
       </c>
@@ -8554,8 +9471,12 @@
       <c r="K113" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L113" s="8">
+        <f t="shared" si="2"/>
+        <v>20071</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>484</v>
       </c>
@@ -8577,8 +9498,12 @@
       <c r="K114" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L114" s="8">
+        <f t="shared" si="2"/>
+        <v>20081</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>487</v>
       </c>
@@ -8600,8 +9525,12 @@
       <c r="K115" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L115" s="8">
+        <f t="shared" si="2"/>
+        <v>20091</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>490</v>
       </c>
@@ -8623,8 +9552,12 @@
       <c r="K116" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L116" s="8">
+        <f t="shared" si="2"/>
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>545</v>
       </c>
@@ -8640,8 +9573,12 @@
       <c r="K118" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L118" s="8">
+        <f t="shared" si="2"/>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>546</v>
       </c>
@@ -8657,8 +9594,12 @@
       <c r="K119" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L119" s="8">
+        <f t="shared" si="2"/>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>547</v>
       </c>
@@ -8674,8 +9615,12 @@
       <c r="K120" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L120" s="8">
+        <f t="shared" si="2"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>548</v>
       </c>
@@ -8691,8 +9636,12 @@
       <c r="K121" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L121" s="8">
+        <f t="shared" si="2"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>549</v>
       </c>
@@ -8708,8 +9657,12 @@
       <c r="K122" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L122" s="8">
+        <f t="shared" si="2"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>550</v>
       </c>
@@ -8725,8 +9678,12 @@
       <c r="K123" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L123" s="8">
+        <f t="shared" si="2"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
         <v>551</v>
       </c>
@@ -8742,8 +9699,12 @@
       <c r="K124" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L124" s="8">
+        <f t="shared" si="2"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>552</v>
       </c>
@@ -8759,8 +9720,12 @@
       <c r="K125" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L125" s="8">
+        <f t="shared" si="2"/>
+        <v>20061</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>553</v>
       </c>
@@ -8776,8 +9741,12 @@
       <c r="K126" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L126" s="8">
+        <f t="shared" si="2"/>
+        <v>20062</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>554</v>
       </c>
@@ -8793,8 +9762,12 @@
       <c r="K127" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L127" s="8">
+        <f t="shared" si="2"/>
+        <v>20071</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>555</v>
       </c>
@@ -8810,8 +9783,12 @@
       <c r="K128" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L128" s="8">
+        <f t="shared" si="2"/>
+        <v>20072</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>556</v>
       </c>
@@ -8827,8 +9804,12 @@
       <c r="K129" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L129" s="8">
+        <f t="shared" ref="L129:L192" si="3">RIGHT(B129,1)+LEFT(RIGHT(B129,3),1)*10+20000</f>
+        <v>20081</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>557</v>
       </c>
@@ -8844,8 +9825,12 @@
       <c r="K130" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L130" s="8">
+        <f t="shared" si="3"/>
+        <v>20082</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>558</v>
       </c>
@@ -8861,8 +9846,12 @@
       <c r="K131" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L131" s="8">
+        <f t="shared" si="3"/>
+        <v>20091</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>559</v>
       </c>
@@ -8878,8 +9867,12 @@
       <c r="K132" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L132" s="8">
+        <f t="shared" si="3"/>
+        <v>20092</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>560</v>
       </c>
@@ -8895,8 +9888,12 @@
       <c r="K133" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L133" s="8">
+        <f t="shared" si="3"/>
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>561</v>
       </c>
@@ -8912,8 +9909,12 @@
       <c r="K134" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L134" s="8">
+        <f t="shared" si="3"/>
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>562</v>
       </c>
@@ -8929,8 +9930,12 @@
       <c r="K135" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L135" s="8">
+        <f t="shared" si="3"/>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>563</v>
       </c>
@@ -8946,8 +9951,12 @@
       <c r="K136" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L136" s="8">
+        <f t="shared" si="3"/>
+        <v>20012</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>564</v>
       </c>
@@ -8963,8 +9972,12 @@
       <c r="K137" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L137" s="8">
+        <f t="shared" si="3"/>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>565</v>
       </c>
@@ -8980,8 +9993,12 @@
       <c r="K138" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L138" s="8">
+        <f t="shared" si="3"/>
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>566</v>
       </c>
@@ -8997,8 +10014,12 @@
       <c r="K139" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L139" s="8">
+        <f t="shared" si="3"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>567</v>
       </c>
@@ -9014,8 +10035,12 @@
       <c r="K140" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L140" s="8">
+        <f t="shared" si="3"/>
+        <v>20032</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>568</v>
       </c>
@@ -9031,8 +10056,12 @@
       <c r="K141" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L141" s="8">
+        <f t="shared" si="3"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>569</v>
       </c>
@@ -9048,8 +10077,12 @@
       <c r="K142" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L142" s="8">
+        <f t="shared" si="3"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>570</v>
       </c>
@@ -9065,8 +10098,12 @@
       <c r="K143" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L143" s="8">
+        <f t="shared" si="3"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>571</v>
       </c>
@@ -9082,8 +10119,12 @@
       <c r="K144" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L144" s="8">
+        <f t="shared" si="3"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>572</v>
       </c>
@@ -9099,8 +10140,12 @@
       <c r="K145" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L145" s="8">
+        <f t="shared" si="3"/>
+        <v>20061</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>573</v>
       </c>
@@ -9116,8 +10161,12 @@
       <c r="K146" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L146" s="8">
+        <f t="shared" si="3"/>
+        <v>20062</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>574</v>
       </c>
@@ -9133,8 +10182,12 @@
       <c r="K147" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L147" s="8">
+        <f t="shared" si="3"/>
+        <v>20071</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>575</v>
       </c>
@@ -9150,8 +10203,12 @@
       <c r="K148" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L148" s="8">
+        <f t="shared" si="3"/>
+        <v>20072</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>576</v>
       </c>
@@ -9167,8 +10224,12 @@
       <c r="K149" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L149" s="8">
+        <f t="shared" si="3"/>
+        <v>20081</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>577</v>
       </c>
@@ -9184,8 +10245,12 @@
       <c r="K150" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L150" s="8">
+        <f t="shared" si="3"/>
+        <v>20082</v>
+      </c>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>578</v>
       </c>
@@ -9201,8 +10266,12 @@
       <c r="K151" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L151" s="8">
+        <f t="shared" si="3"/>
+        <v>20091</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>579</v>
       </c>
@@ -9218,8 +10287,12 @@
       <c r="K152" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L152" s="8">
+        <f t="shared" si="3"/>
+        <v>20092</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>580</v>
       </c>
@@ -9235,8 +10308,12 @@
       <c r="K153" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L153" s="8">
+        <f t="shared" si="3"/>
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>581</v>
       </c>
@@ -9252,8 +10329,12 @@
       <c r="K154" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L154" s="8">
+        <f t="shared" si="3"/>
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>496</v>
       </c>
@@ -9269,8 +10350,12 @@
       <c r="K156" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L156" s="8">
+        <f t="shared" si="3"/>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>497</v>
       </c>
@@ -9286,8 +10371,12 @@
       <c r="K157" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L157" s="8">
+        <f t="shared" si="3"/>
+        <v>20012</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>498</v>
       </c>
@@ -9303,8 +10392,12 @@
       <c r="K158" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L158" s="8">
+        <f t="shared" si="3"/>
+        <v>20013</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>499</v>
       </c>
@@ -9320,8 +10413,12 @@
       <c r="K159" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L159" s="8">
+        <f t="shared" si="3"/>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>500</v>
       </c>
@@ -9337,8 +10434,12 @@
       <c r="K160" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L160" s="8">
+        <f t="shared" si="3"/>
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>501</v>
       </c>
@@ -9354,8 +10455,12 @@
       <c r="K161" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L161" s="8">
+        <f t="shared" si="3"/>
+        <v>20023</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>502</v>
       </c>
@@ -9371,8 +10476,12 @@
       <c r="K162" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L162" s="8">
+        <f t="shared" si="3"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>503</v>
       </c>
@@ -9388,8 +10497,12 @@
       <c r="K163" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L163" s="8">
+        <f t="shared" si="3"/>
+        <v>20032</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>504</v>
       </c>
@@ -9405,8 +10518,12 @@
       <c r="K164" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L164" s="8">
+        <f t="shared" si="3"/>
+        <v>20033</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>505</v>
       </c>
@@ -9422,8 +10539,12 @@
       <c r="K165" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L165" s="8">
+        <f t="shared" si="3"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>506</v>
       </c>
@@ -9439,8 +10560,12 @@
       <c r="K166" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L166" s="8">
+        <f t="shared" si="3"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>507</v>
       </c>
@@ -9456,8 +10581,12 @@
       <c r="K167" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L167" s="8">
+        <f t="shared" si="3"/>
+        <v>20043</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>508</v>
       </c>
@@ -9473,8 +10602,12 @@
       <c r="K168" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L168" s="8">
+        <f t="shared" si="3"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>509</v>
       </c>
@@ -9490,8 +10623,12 @@
       <c r="K169" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L169" s="8">
+        <f t="shared" si="3"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>510</v>
       </c>
@@ -9507,8 +10644,12 @@
       <c r="K170" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L170" s="8">
+        <f t="shared" si="3"/>
+        <v>20053</v>
+      </c>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>511</v>
       </c>
@@ -9524,8 +10665,12 @@
       <c r="K171" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L171" s="8">
+        <f t="shared" si="3"/>
+        <v>20061</v>
+      </c>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>512</v>
       </c>
@@ -9541,8 +10686,12 @@
       <c r="K172" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L172" s="8">
+        <f t="shared" si="3"/>
+        <v>20062</v>
+      </c>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>513</v>
       </c>
@@ -9558,8 +10707,12 @@
       <c r="K173" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L173" s="8">
+        <f t="shared" si="3"/>
+        <v>20063</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>514</v>
       </c>
@@ -9575,8 +10728,12 @@
       <c r="K174" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L174" s="8">
+        <f t="shared" si="3"/>
+        <v>20071</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>515</v>
       </c>
@@ -9592,8 +10749,12 @@
       <c r="K175" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L175" s="8">
+        <f t="shared" si="3"/>
+        <v>20072</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>516</v>
       </c>
@@ -9609,8 +10770,12 @@
       <c r="K176" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L176" s="8">
+        <f t="shared" si="3"/>
+        <v>20073</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>517</v>
       </c>
@@ -9626,8 +10791,12 @@
       <c r="K177" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L177" s="8">
+        <f t="shared" si="3"/>
+        <v>20081</v>
+      </c>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>518</v>
       </c>
@@ -9643,8 +10812,12 @@
       <c r="K178" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L178" s="8">
+        <f t="shared" si="3"/>
+        <v>20082</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>519</v>
       </c>
@@ -9660,8 +10833,12 @@
       <c r="K179" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L179" s="8">
+        <f t="shared" si="3"/>
+        <v>20083</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>520</v>
       </c>
@@ -9677,8 +10854,12 @@
       <c r="K180" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L180" s="8">
+        <f t="shared" si="3"/>
+        <v>20091</v>
+      </c>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>521</v>
       </c>
@@ -9694,8 +10875,12 @@
       <c r="K181" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L181" s="8">
+        <f t="shared" si="3"/>
+        <v>20092</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>522</v>
       </c>
@@ -9711,8 +10896,12 @@
       <c r="K182" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L182" s="8">
+        <f t="shared" si="3"/>
+        <v>20093</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>523</v>
       </c>
@@ -9728,8 +10917,12 @@
       <c r="K183" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L183" s="8">
+        <f t="shared" si="3"/>
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>524</v>
       </c>
@@ -9745,8 +10938,12 @@
       <c r="K184" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L184" s="8">
+        <f t="shared" si="3"/>
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>525</v>
       </c>
@@ -9762,8 +10959,12 @@
       <c r="K185" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L185" s="8">
+        <f t="shared" si="3"/>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>526</v>
       </c>
@@ -9779,8 +10980,12 @@
       <c r="K186" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L186" s="8">
+        <f t="shared" si="3"/>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>527</v>
       </c>
@@ -9796,8 +11001,12 @@
       <c r="K187" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L187" s="8">
+        <f t="shared" si="3"/>
+        <v>20012</v>
+      </c>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>528</v>
       </c>
@@ -9813,8 +11022,12 @@
       <c r="K188" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L188" s="8">
+        <f t="shared" si="3"/>
+        <v>20013</v>
+      </c>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>529</v>
       </c>
@@ -9830,8 +11043,12 @@
       <c r="K189" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L189" s="8">
+        <f t="shared" si="3"/>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>530</v>
       </c>
@@ -9847,8 +11064,12 @@
       <c r="K190" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L190" s="8">
+        <f t="shared" si="3"/>
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>531</v>
       </c>
@@ -9864,8 +11085,12 @@
       <c r="K191" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L191" s="8">
+        <f t="shared" si="3"/>
+        <v>20023</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>532</v>
       </c>
@@ -9881,8 +11106,12 @@
       <c r="K192" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L192" s="8">
+        <f t="shared" si="3"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>533</v>
       </c>
@@ -9898,8 +11127,12 @@
       <c r="K193" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L193" s="8">
+        <f t="shared" ref="L193:L256" si="4">RIGHT(B193,1)+LEFT(RIGHT(B193,3),1)*10+20000</f>
+        <v>20032</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>534</v>
       </c>
@@ -9915,8 +11148,12 @@
       <c r="K194" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L194" s="8">
+        <f t="shared" si="4"/>
+        <v>20033</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>535</v>
       </c>
@@ -9932,8 +11169,12 @@
       <c r="K195" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L195" s="8">
+        <f t="shared" si="4"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="196" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>536</v>
       </c>
@@ -9949,8 +11190,12 @@
       <c r="K196" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L196" s="8">
+        <f t="shared" si="4"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="197" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>537</v>
       </c>
@@ -9966,8 +11211,12 @@
       <c r="K197" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L197" s="8">
+        <f t="shared" si="4"/>
+        <v>20043</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>538</v>
       </c>
@@ -9983,8 +11232,12 @@
       <c r="K198" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L198" s="8">
+        <f t="shared" si="4"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>539</v>
       </c>
@@ -10000,8 +11253,12 @@
       <c r="K199" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L199" s="8">
+        <f t="shared" si="4"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>540</v>
       </c>
@@ -10017,8 +11274,12 @@
       <c r="K200" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L200" s="8">
+        <f t="shared" si="4"/>
+        <v>20053</v>
+      </c>
+    </row>
+    <row r="201" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>675</v>
       </c>
@@ -10034,8 +11295,12 @@
       <c r="K201" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L201" s="8">
+        <f t="shared" si="4"/>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="202" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>676</v>
       </c>
@@ -10051,8 +11316,12 @@
       <c r="K202" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L202" s="8">
+        <f t="shared" si="4"/>
+        <v>20012</v>
+      </c>
+    </row>
+    <row r="203" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>677</v>
       </c>
@@ -10068,8 +11337,12 @@
       <c r="K203" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L203" s="8">
+        <f t="shared" si="4"/>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="204" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>678</v>
       </c>
@@ -10085,8 +11358,12 @@
       <c r="K204" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L204" s="8">
+        <f t="shared" si="4"/>
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="205" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>679</v>
       </c>
@@ -10102,8 +11379,12 @@
       <c r="K205" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L205" s="8">
+        <f t="shared" si="4"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="206" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>680</v>
       </c>
@@ -10119,8 +11400,12 @@
       <c r="K206" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L206" s="8">
+        <f t="shared" si="4"/>
+        <v>20032</v>
+      </c>
+    </row>
+    <row r="207" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>681</v>
       </c>
@@ -10136,8 +11421,12 @@
       <c r="K207" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L207" s="8">
+        <f t="shared" si="4"/>
+        <v>20033</v>
+      </c>
+    </row>
+    <row r="208" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>682</v>
       </c>
@@ -10153,8 +11442,12 @@
       <c r="K208" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L208" s="8">
+        <f t="shared" si="4"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="209" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>683</v>
       </c>
@@ -10170,8 +11463,12 @@
       <c r="K209" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L209" s="8">
+        <f t="shared" si="4"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="210" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>684</v>
       </c>
@@ -10187,8 +11484,12 @@
       <c r="K210" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L210" s="8">
+        <f t="shared" si="4"/>
+        <v>20043</v>
+      </c>
+    </row>
+    <row r="211" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>685</v>
       </c>
@@ -10204,8 +11505,12 @@
       <c r="K211" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L211" s="8">
+        <f t="shared" si="4"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="212" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>686</v>
       </c>
@@ -10221,8 +11526,12 @@
       <c r="K212" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L212" s="8">
+        <f t="shared" si="4"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>687</v>
       </c>
@@ -10238,8 +11547,12 @@
       <c r="K213" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L213" s="8">
+        <f t="shared" si="4"/>
+        <v>20053</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>688</v>
       </c>
@@ -10255,8 +11568,12 @@
       <c r="K214" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L214" s="8">
+        <f t="shared" si="4"/>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>689</v>
       </c>
@@ -10272,8 +11589,12 @@
       <c r="K215" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L215" s="8">
+        <f t="shared" si="4"/>
+        <v>20012</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>690</v>
       </c>
@@ -10289,8 +11610,12 @@
       <c r="K216" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L216" s="8">
+        <f t="shared" si="4"/>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>691</v>
       </c>
@@ -10306,8 +11631,12 @@
       <c r="K217" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L217" s="8">
+        <f t="shared" si="4"/>
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>692</v>
       </c>
@@ -10323,8 +11652,12 @@
       <c r="K218" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L218" s="8">
+        <f t="shared" si="4"/>
+        <v>20023</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>693</v>
       </c>
@@ -10340,8 +11673,12 @@
       <c r="K219" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L219" s="8">
+        <f t="shared" si="4"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="220" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>694</v>
       </c>
@@ -10357,8 +11694,12 @@
       <c r="K220" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L220" s="8">
+        <f t="shared" si="4"/>
+        <v>20032</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>695</v>
       </c>
@@ -10374,8 +11715,12 @@
       <c r="K221" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L221" s="8">
+        <f t="shared" si="4"/>
+        <v>20033</v>
+      </c>
+    </row>
+    <row r="222" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>696</v>
       </c>
@@ -10391,8 +11736,12 @@
       <c r="K222" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L222" s="8">
+        <f t="shared" si="4"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>697</v>
       </c>
@@ -10408,8 +11757,12 @@
       <c r="K223" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L223" s="8">
+        <f t="shared" si="4"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="224" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>698</v>
       </c>
@@ -10425,8 +11778,12 @@
       <c r="K224" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L224" s="8">
+        <f t="shared" si="4"/>
+        <v>20043</v>
+      </c>
+    </row>
+    <row r="225" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>699</v>
       </c>
@@ -10442,8 +11799,12 @@
       <c r="K225" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L225" s="8">
+        <f t="shared" si="4"/>
+        <v>20044</v>
+      </c>
+    </row>
+    <row r="226" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>700</v>
       </c>
@@ -10459,8 +11820,12 @@
       <c r="K226" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L226" s="8">
+        <f t="shared" si="4"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>701</v>
       </c>
@@ -10476,8 +11841,12 @@
       <c r="K227" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L227" s="8">
+        <f t="shared" si="4"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>702</v>
       </c>
@@ -10493,8 +11862,12 @@
       <c r="K228" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L228" s="8">
+        <f t="shared" si="4"/>
+        <v>20053</v>
+      </c>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>703</v>
       </c>
@@ -10510,8 +11883,12 @@
       <c r="K229" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L229" s="8">
+        <f t="shared" si="4"/>
+        <v>20054</v>
+      </c>
+    </row>
+    <row r="230" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>704</v>
       </c>
@@ -10527,8 +11904,12 @@
       <c r="K230" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L230" s="8">
+        <f t="shared" si="4"/>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="231" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>705</v>
       </c>
@@ -10544,8 +11925,12 @@
       <c r="K231" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L231" s="8">
+        <f t="shared" si="4"/>
+        <v>20012</v>
+      </c>
+    </row>
+    <row r="232" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>706</v>
       </c>
@@ -10561,8 +11946,12 @@
       <c r="K232" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L232" s="8">
+        <f t="shared" si="4"/>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="233" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>707</v>
       </c>
@@ -10578,8 +11967,12 @@
       <c r="K233" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L233" s="8">
+        <f t="shared" si="4"/>
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="234" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>708</v>
       </c>
@@ -10595,8 +11988,12 @@
       <c r="K234" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L234" s="8">
+        <f t="shared" si="4"/>
+        <v>20023</v>
+      </c>
+    </row>
+    <row r="235" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>709</v>
       </c>
@@ -10612,8 +12009,12 @@
       <c r="K235" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L235" s="8">
+        <f t="shared" si="4"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="236" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>710</v>
       </c>
@@ -10629,8 +12030,12 @@
       <c r="K236" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L236" s="8">
+        <f t="shared" si="4"/>
+        <v>20032</v>
+      </c>
+    </row>
+    <row r="237" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>711</v>
       </c>
@@ -10646,8 +12051,12 @@
       <c r="K237" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L237" s="8">
+        <f t="shared" si="4"/>
+        <v>20033</v>
+      </c>
+    </row>
+    <row r="238" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>712</v>
       </c>
@@ -10663,8 +12072,12 @@
       <c r="K238" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L238" s="8">
+        <f t="shared" si="4"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="239" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>713</v>
       </c>
@@ -10680,8 +12093,12 @@
       <c r="K239" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L239" s="8">
+        <f t="shared" si="4"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="240" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>714</v>
       </c>
@@ -10697,8 +12114,12 @@
       <c r="K240" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L240" s="8">
+        <f t="shared" si="4"/>
+        <v>20043</v>
+      </c>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>715</v>
       </c>
@@ -10714,8 +12135,12 @@
       <c r="K241" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L241" s="8">
+        <f t="shared" si="4"/>
+        <v>20044</v>
+      </c>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>716</v>
       </c>
@@ -10731,8 +12156,12 @@
       <c r="K242" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L242" s="8">
+        <f t="shared" si="4"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>717</v>
       </c>
@@ -10748,8 +12177,12 @@
       <c r="K243" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L243" s="8">
+        <f t="shared" si="4"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>718</v>
       </c>
@@ -10765,8 +12198,12 @@
       <c r="K244" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L244" s="8">
+        <f t="shared" si="4"/>
+        <v>20053</v>
+      </c>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>719</v>
       </c>
@@ -10782,8 +12219,12 @@
       <c r="K245" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L245" s="8">
+        <f t="shared" si="4"/>
+        <v>20054</v>
+      </c>
+    </row>
+    <row r="246" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>720</v>
       </c>
@@ -10799,8 +12240,12 @@
       <c r="K246" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L246" s="8">
+        <f t="shared" si="4"/>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="247" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>721</v>
       </c>
@@ -10816,8 +12261,12 @@
       <c r="K247" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L247" s="8">
+        <f t="shared" si="4"/>
+        <v>20012</v>
+      </c>
+    </row>
+    <row r="248" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>722</v>
       </c>
@@ -10833,8 +12282,12 @@
       <c r="K248" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L248" s="8">
+        <f t="shared" si="4"/>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="249" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>723</v>
       </c>
@@ -10850,8 +12303,12 @@
       <c r="K249" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L249" s="8">
+        <f t="shared" si="4"/>
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="250" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>724</v>
       </c>
@@ -10867,8 +12324,12 @@
       <c r="K250" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L250" s="8">
+        <f t="shared" si="4"/>
+        <v>20023</v>
+      </c>
+    </row>
+    <row r="251" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>725</v>
       </c>
@@ -10884,8 +12345,12 @@
       <c r="K251" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L251" s="8">
+        <f t="shared" si="4"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="252" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>726</v>
       </c>
@@ -10901,8 +12366,12 @@
       <c r="K252" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L252" s="8">
+        <f t="shared" si="4"/>
+        <v>20032</v>
+      </c>
+    </row>
+    <row r="253" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>727</v>
       </c>
@@ -10918,8 +12387,12 @@
       <c r="K253" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L253" s="8">
+        <f t="shared" si="4"/>
+        <v>20033</v>
+      </c>
+    </row>
+    <row r="254" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>728</v>
       </c>
@@ -10935,8 +12408,12 @@
       <c r="K254" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L254" s="8">
+        <f t="shared" si="4"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="255" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>729</v>
       </c>
@@ -10952,8 +12429,12 @@
       <c r="K255" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L255" s="8">
+        <f t="shared" si="4"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="256" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>730</v>
       </c>
@@ -10969,8 +12450,12 @@
       <c r="K256" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L256" s="8">
+        <f t="shared" si="4"/>
+        <v>20043</v>
+      </c>
+    </row>
+    <row r="257" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>731</v>
       </c>
@@ -10986,8 +12471,12 @@
       <c r="K257" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L257" s="8">
+        <f t="shared" ref="L257:L275" si="5">RIGHT(B257,1)+LEFT(RIGHT(B257,3),1)*10+20000</f>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="258" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>732</v>
       </c>
@@ -11003,8 +12492,12 @@
       <c r="K258" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L258" s="8">
+        <f t="shared" si="5"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="259" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>733</v>
       </c>
@@ -11020,8 +12513,12 @@
       <c r="K259" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L259" s="8">
+        <f t="shared" si="5"/>
+        <v>20053</v>
+      </c>
+    </row>
+    <row r="260" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>734</v>
       </c>
@@ -11037,8 +12534,12 @@
       <c r="K260" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L260" s="8">
+        <f t="shared" si="5"/>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="261" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>735</v>
       </c>
@@ -11054,8 +12555,12 @@
       <c r="K261" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L261" s="8">
+        <f t="shared" si="5"/>
+        <v>20012</v>
+      </c>
+    </row>
+    <row r="262" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>736</v>
       </c>
@@ -11071,8 +12576,12 @@
       <c r="K262" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L262" s="8">
+        <f t="shared" si="5"/>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="263" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>737</v>
       </c>
@@ -11088,8 +12597,12 @@
       <c r="K263" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L263" s="8">
+        <f t="shared" si="5"/>
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="264" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>738</v>
       </c>
@@ -11105,8 +12618,12 @@
       <c r="K264" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L264" s="8">
+        <f t="shared" si="5"/>
+        <v>20023</v>
+      </c>
+    </row>
+    <row r="265" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>739</v>
       </c>
@@ -11122,8 +12639,12 @@
       <c r="K265" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L265" s="8">
+        <f t="shared" si="5"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="266" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>740</v>
       </c>
@@ -11139,8 +12660,12 @@
       <c r="K266" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L266" s="8">
+        <f t="shared" si="5"/>
+        <v>20032</v>
+      </c>
+    </row>
+    <row r="267" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>741</v>
       </c>
@@ -11156,8 +12681,12 @@
       <c r="K267" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L267" s="8">
+        <f t="shared" si="5"/>
+        <v>20033</v>
+      </c>
+    </row>
+    <row r="268" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>742</v>
       </c>
@@ -11173,8 +12702,12 @@
       <c r="K268" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L268" s="8">
+        <f t="shared" si="5"/>
+        <v>20034</v>
+      </c>
+    </row>
+    <row r="269" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>743</v>
       </c>
@@ -11190,8 +12723,12 @@
       <c r="K269" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L269" s="8">
+        <f t="shared" si="5"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="270" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>744</v>
       </c>
@@ -11207,8 +12744,12 @@
       <c r="K270" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L270" s="8">
+        <f t="shared" si="5"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="271" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>745</v>
       </c>
@@ -11224,8 +12765,12 @@
       <c r="K271" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L271" s="8">
+        <f t="shared" si="5"/>
+        <v>20043</v>
+      </c>
+    </row>
+    <row r="272" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>746</v>
       </c>
@@ -11241,8 +12786,12 @@
       <c r="K272" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L272" s="8">
+        <f t="shared" si="5"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="273" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>747</v>
       </c>
@@ -11258,8 +12807,12 @@
       <c r="K273" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L273" s="8">
+        <f t="shared" si="5"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="274" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>748</v>
       </c>
@@ -11275,8 +12828,12 @@
       <c r="K274" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L274" s="8">
+        <f t="shared" si="5"/>
+        <v>20053</v>
+      </c>
+    </row>
+    <row r="275" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>749</v>
       </c>
@@ -11292,8 +12849,12 @@
       <c r="K275" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L275" s="8">
+        <f t="shared" si="5"/>
+        <v>20054</v>
+      </c>
+    </row>
+    <row r="277" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B277" s="8" t="s">
         <v>750</v>
       </c>
@@ -11315,8 +12876,12 @@
       <c r="K277" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L277" s="8">
+        <f>RIGHT(B277,1)+20000</f>
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="278" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B278" s="8" t="s">
         <v>751</v>
       </c>
@@ -11338,8 +12903,12 @@
       <c r="K278" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L278" s="8">
+        <f t="shared" ref="L278:L297" si="6">RIGHT(B278,1)+20000</f>
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="279" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B279" s="8" t="s">
         <v>752</v>
       </c>
@@ -11361,8 +12930,12 @@
       <c r="K279" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L279" s="8">
+        <f t="shared" si="6"/>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="280" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B280" s="8" t="s">
         <v>753</v>
       </c>
@@ -11384,8 +12957,12 @@
       <c r="K280" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L280" s="8">
+        <f t="shared" si="6"/>
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="281" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B281" s="8" t="s">
         <v>754</v>
       </c>
@@ -11407,8 +12984,12 @@
       <c r="K281" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L281" s="8">
+        <f t="shared" si="6"/>
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="282" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B282" s="8" t="s">
         <v>755</v>
       </c>
@@ -11430,8 +13011,12 @@
       <c r="K282" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L282" s="8">
+        <f t="shared" si="6"/>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="283" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B283" s="8" t="s">
         <v>756</v>
       </c>
@@ -11453,8 +13038,12 @@
       <c r="K283" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L283" s="8">
+        <f t="shared" si="6"/>
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="284" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B284" s="8" t="s">
         <v>757</v>
       </c>
@@ -11476,8 +13065,12 @@
       <c r="K284" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L284" s="8">
+        <f t="shared" si="6"/>
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="285" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B285" s="8" t="s">
         <v>758</v>
       </c>
@@ -11499,8 +13092,12 @@
       <c r="K285" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L285" s="8">
+        <f t="shared" si="6"/>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="286" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B286" s="8" t="s">
         <v>759</v>
       </c>
@@ -11522,8 +13119,12 @@
       <c r="K286" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L286" s="8">
+        <f t="shared" si="6"/>
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="287" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B287" s="8" t="s">
         <v>760</v>
       </c>
@@ -11545,8 +13146,12 @@
       <c r="K287" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L287" s="8">
+        <f t="shared" si="6"/>
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="288" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B288" s="8" t="s">
         <v>761</v>
       </c>
@@ -11568,8 +13173,12 @@
       <c r="K288" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L288" s="8">
+        <f t="shared" si="6"/>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="289" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B289" s="8" t="s">
         <v>762</v>
       </c>
@@ -11591,8 +13200,12 @@
       <c r="K289" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L289" s="8">
+        <f t="shared" si="6"/>
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="290" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B290" s="8" t="s">
         <v>763</v>
       </c>
@@ -11614,8 +13227,12 @@
       <c r="K290" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L290" s="8">
+        <f t="shared" si="6"/>
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="291" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B291" s="8" t="s">
         <v>764</v>
       </c>
@@ -11637,8 +13254,12 @@
       <c r="K291" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L291" s="8">
+        <f t="shared" si="6"/>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="292" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B292" s="8" t="s">
         <v>765</v>
       </c>
@@ -11660,8 +13281,12 @@
       <c r="K292" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L292" s="8">
+        <f t="shared" si="6"/>
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="293" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B293" s="8" t="s">
         <v>766</v>
       </c>
@@ -11683,8 +13308,12 @@
       <c r="K293" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L293" s="8">
+        <f t="shared" si="6"/>
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="294" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B294" s="8" t="s">
         <v>767</v>
       </c>
@@ -11706,8 +13335,12 @@
       <c r="K294" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L294" s="8">
+        <f t="shared" si="6"/>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="295" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B295" s="8" t="s">
         <v>768</v>
       </c>
@@ -11729,8 +13362,12 @@
       <c r="K295" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L295" s="8">
+        <f t="shared" si="6"/>
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="296" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B296" s="8" t="s">
         <v>769</v>
       </c>
@@ -11752,8 +13389,12 @@
       <c r="K296" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L296" s="8">
+        <f t="shared" si="6"/>
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="297" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B297" s="8" t="s">
         <v>770</v>
       </c>
@@ -11774,6 +13415,892 @@
       </c>
       <c r="K297" t="b">
         <v>1</v>
+      </c>
+      <c r="L297" s="8">
+        <f t="shared" si="6"/>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="299" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B299" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="H299" t="s">
+        <v>33</v>
+      </c>
+      <c r="I299" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J299" t="s">
+        <v>465</v>
+      </c>
+      <c r="K299" t="b">
+        <v>1</v>
+      </c>
+      <c r="L299" s="8">
+        <f t="shared" ref="L299:L340" si="7">RIGHT(B299,1)+LEFT(RIGHT(B299,3),1)*10+20000</f>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="300" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B300" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="H300" t="s">
+        <v>33</v>
+      </c>
+      <c r="I300" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J300" t="s">
+        <v>465</v>
+      </c>
+      <c r="K300" t="b">
+        <v>1</v>
+      </c>
+      <c r="L300" s="8">
+        <f t="shared" si="7"/>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="301" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B301" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="H301" t="s">
+        <v>33</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J301" t="s">
+        <v>465</v>
+      </c>
+      <c r="K301" t="b">
+        <v>1</v>
+      </c>
+      <c r="L301" s="8">
+        <f t="shared" si="7"/>
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="302" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B302" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="H302" t="s">
+        <v>33</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J302" t="s">
+        <v>465</v>
+      </c>
+      <c r="K302" t="b">
+        <v>1</v>
+      </c>
+      <c r="L302" s="8">
+        <f t="shared" si="7"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="303" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B303" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="H303" t="s">
+        <v>33</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J303" t="s">
+        <v>465</v>
+      </c>
+      <c r="K303" t="b">
+        <v>1</v>
+      </c>
+      <c r="L303" s="8">
+        <f t="shared" si="7"/>
+        <v>20032</v>
+      </c>
+    </row>
+    <row r="304" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B304" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="H304" t="s">
+        <v>33</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J304" t="s">
+        <v>465</v>
+      </c>
+      <c r="K304" t="b">
+        <v>1</v>
+      </c>
+      <c r="L304" s="8">
+        <f t="shared" si="7"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="305" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B305" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="H305" t="s">
+        <v>33</v>
+      </c>
+      <c r="I305" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J305" t="s">
+        <v>465</v>
+      </c>
+      <c r="K305" t="b">
+        <v>1</v>
+      </c>
+      <c r="L305" s="8">
+        <f t="shared" si="7"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="306" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B306" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="H306" t="s">
+        <v>33</v>
+      </c>
+      <c r="I306" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J306" t="s">
+        <v>465</v>
+      </c>
+      <c r="K306" t="b">
+        <v>1</v>
+      </c>
+      <c r="L306" s="8">
+        <f t="shared" si="7"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="307" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B307" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="H307" t="s">
+        <v>33</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J307" t="s">
+        <v>465</v>
+      </c>
+      <c r="K307" t="b">
+        <v>1</v>
+      </c>
+      <c r="L307" s="8">
+        <f t="shared" si="7"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="308" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B308" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="H308" t="s">
+        <v>33</v>
+      </c>
+      <c r="I308" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J308" t="s">
+        <v>465</v>
+      </c>
+      <c r="K308" t="b">
+        <v>1</v>
+      </c>
+      <c r="L308" s="8">
+        <f t="shared" si="7"/>
+        <v>20061</v>
+      </c>
+    </row>
+    <row r="309" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B309" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="H309" t="s">
+        <v>33</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J309" t="s">
+        <v>465</v>
+      </c>
+      <c r="K309" t="b">
+        <v>1</v>
+      </c>
+      <c r="L309" s="8">
+        <f t="shared" si="7"/>
+        <v>20062</v>
+      </c>
+    </row>
+    <row r="310" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B310" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="H310" t="s">
+        <v>33</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J310" t="s">
+        <v>465</v>
+      </c>
+      <c r="K310" t="b">
+        <v>1</v>
+      </c>
+      <c r="L310" s="8">
+        <f t="shared" si="7"/>
+        <v>20071</v>
+      </c>
+    </row>
+    <row r="311" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B311" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="H311" t="s">
+        <v>33</v>
+      </c>
+      <c r="I311" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J311" t="s">
+        <v>465</v>
+      </c>
+      <c r="K311" t="b">
+        <v>1</v>
+      </c>
+      <c r="L311" s="8">
+        <f t="shared" si="7"/>
+        <v>20072</v>
+      </c>
+    </row>
+    <row r="312" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B312" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="H312" t="s">
+        <v>33</v>
+      </c>
+      <c r="I312" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J312" t="s">
+        <v>465</v>
+      </c>
+      <c r="K312" t="b">
+        <v>1</v>
+      </c>
+      <c r="L312" s="8">
+        <f t="shared" si="7"/>
+        <v>20081</v>
+      </c>
+    </row>
+    <row r="313" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B313" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="H313" t="s">
+        <v>33</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J313" t="s">
+        <v>465</v>
+      </c>
+      <c r="K313" t="b">
+        <v>1</v>
+      </c>
+      <c r="L313" s="8">
+        <f t="shared" si="7"/>
+        <v>20082</v>
+      </c>
+    </row>
+    <row r="314" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B314" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="H314" t="s">
+        <v>33</v>
+      </c>
+      <c r="I314" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J314" t="s">
+        <v>465</v>
+      </c>
+      <c r="K314" t="b">
+        <v>1</v>
+      </c>
+      <c r="L314" s="8">
+        <f t="shared" si="7"/>
+        <v>20091</v>
+      </c>
+    </row>
+    <row r="315" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B315" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="H315" t="s">
+        <v>33</v>
+      </c>
+      <c r="I315" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J315" t="s">
+        <v>465</v>
+      </c>
+      <c r="K315" t="b">
+        <v>1</v>
+      </c>
+      <c r="L315" s="8">
+        <f t="shared" si="7"/>
+        <v>20092</v>
+      </c>
+    </row>
+    <row r="316" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B316" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="H316" t="s">
+        <v>33</v>
+      </c>
+      <c r="I316" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J316" t="s">
+        <v>465</v>
+      </c>
+      <c r="K316" t="b">
+        <v>1</v>
+      </c>
+      <c r="L316" s="8">
+        <f t="shared" si="7"/>
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="317" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B317" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="H317" t="s">
+        <v>33</v>
+      </c>
+      <c r="I317" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J317" t="s">
+        <v>465</v>
+      </c>
+      <c r="K317" t="b">
+        <v>1</v>
+      </c>
+      <c r="L317" s="8">
+        <f t="shared" si="7"/>
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="318" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B318" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="H318" t="s">
+        <v>33</v>
+      </c>
+      <c r="I318" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J318" t="s">
+        <v>465</v>
+      </c>
+      <c r="K318" t="b">
+        <v>1</v>
+      </c>
+      <c r="L318" s="8">
+        <f t="shared" si="7"/>
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="319" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B319" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="H319" t="s">
+        <v>33</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J319" t="s">
+        <v>465</v>
+      </c>
+      <c r="K319" t="b">
+        <v>1</v>
+      </c>
+      <c r="L319" s="8">
+        <f t="shared" si="7"/>
+        <v>20012</v>
+      </c>
+    </row>
+    <row r="320" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B320" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="H320" t="s">
+        <v>33</v>
+      </c>
+      <c r="I320" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J320" t="s">
+        <v>465</v>
+      </c>
+      <c r="K320" t="b">
+        <v>1</v>
+      </c>
+      <c r="L320" s="8">
+        <f t="shared" si="7"/>
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="321" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B321" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="H321" t="s">
+        <v>33</v>
+      </c>
+      <c r="I321" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J321" t="s">
+        <v>465</v>
+      </c>
+      <c r="K321" t="b">
+        <v>1</v>
+      </c>
+      <c r="L321" s="8">
+        <f t="shared" si="7"/>
+        <v>20031</v>
+      </c>
+    </row>
+    <row r="322" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B322" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="H322" t="s">
+        <v>33</v>
+      </c>
+      <c r="I322" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J322" t="s">
+        <v>465</v>
+      </c>
+      <c r="K322" t="b">
+        <v>1</v>
+      </c>
+      <c r="L322" s="8">
+        <f t="shared" si="7"/>
+        <v>20032</v>
+      </c>
+    </row>
+    <row r="323" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B323" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="H323" t="s">
+        <v>33</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J323" t="s">
+        <v>465</v>
+      </c>
+      <c r="K323" t="b">
+        <v>1</v>
+      </c>
+      <c r="L323" s="8">
+        <f t="shared" si="7"/>
+        <v>20041</v>
+      </c>
+    </row>
+    <row r="324" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B324" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="H324" t="s">
+        <v>33</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J324" t="s">
+        <v>465</v>
+      </c>
+      <c r="K324" t="b">
+        <v>1</v>
+      </c>
+      <c r="L324" s="8">
+        <f t="shared" si="7"/>
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="325" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B325" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="H325" t="s">
+        <v>33</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J325" t="s">
+        <v>465</v>
+      </c>
+      <c r="K325" t="b">
+        <v>1</v>
+      </c>
+      <c r="L325" s="8">
+        <f t="shared" si="7"/>
+        <v>20051</v>
+      </c>
+    </row>
+    <row r="326" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B326" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="H326" t="s">
+        <v>33</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J326" t="s">
+        <v>465</v>
+      </c>
+      <c r="K326" t="b">
+        <v>1</v>
+      </c>
+      <c r="L326" s="8">
+        <f t="shared" si="7"/>
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="327" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B327" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="H327" t="s">
+        <v>33</v>
+      </c>
+      <c r="I327" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J327" t="s">
+        <v>465</v>
+      </c>
+      <c r="K327" t="b">
+        <v>1</v>
+      </c>
+      <c r="L327" s="8">
+        <f t="shared" si="7"/>
+        <v>20053</v>
+      </c>
+    </row>
+    <row r="328" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B328" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="H328" t="s">
+        <v>33</v>
+      </c>
+      <c r="I328" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J328" t="s">
+        <v>465</v>
+      </c>
+      <c r="K328" t="b">
+        <v>1</v>
+      </c>
+      <c r="L328" s="8">
+        <f t="shared" si="7"/>
+        <v>20061</v>
+      </c>
+    </row>
+    <row r="329" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B329" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="H329" t="s">
+        <v>33</v>
+      </c>
+      <c r="I329" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J329" t="s">
+        <v>465</v>
+      </c>
+      <c r="K329" t="b">
+        <v>1</v>
+      </c>
+      <c r="L329" s="8">
+        <f t="shared" si="7"/>
+        <v>20062</v>
+      </c>
+    </row>
+    <row r="330" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B330" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="H330" t="s">
+        <v>33</v>
+      </c>
+      <c r="I330" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J330" t="s">
+        <v>465</v>
+      </c>
+      <c r="K330" t="b">
+        <v>1</v>
+      </c>
+      <c r="L330" s="8">
+        <f t="shared" si="7"/>
+        <v>20071</v>
+      </c>
+    </row>
+    <row r="331" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B331" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="H331" t="s">
+        <v>33</v>
+      </c>
+      <c r="I331" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J331" t="s">
+        <v>465</v>
+      </c>
+      <c r="K331" t="b">
+        <v>1</v>
+      </c>
+      <c r="L331" s="8">
+        <f t="shared" si="7"/>
+        <v>20072</v>
+      </c>
+    </row>
+    <row r="332" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B332" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="H332" t="s">
+        <v>33</v>
+      </c>
+      <c r="I332" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J332" t="s">
+        <v>465</v>
+      </c>
+      <c r="K332" t="b">
+        <v>1</v>
+      </c>
+      <c r="L332" s="8">
+        <f t="shared" si="7"/>
+        <v>20081</v>
+      </c>
+    </row>
+    <row r="333" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B333" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="H333" t="s">
+        <v>33</v>
+      </c>
+      <c r="I333" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J333" t="s">
+        <v>465</v>
+      </c>
+      <c r="K333" t="b">
+        <v>1</v>
+      </c>
+      <c r="L333" s="8">
+        <f t="shared" si="7"/>
+        <v>20082</v>
+      </c>
+    </row>
+    <row r="334" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B334" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="H334" t="s">
+        <v>33</v>
+      </c>
+      <c r="I334" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J334" t="s">
+        <v>465</v>
+      </c>
+      <c r="K334" t="b">
+        <v>1</v>
+      </c>
+      <c r="L334" s="8">
+        <f t="shared" si="7"/>
+        <v>20083</v>
+      </c>
+    </row>
+    <row r="335" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B335" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="H335" t="s">
+        <v>33</v>
+      </c>
+      <c r="I335" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J335" t="s">
+        <v>465</v>
+      </c>
+      <c r="K335" t="b">
+        <v>1</v>
+      </c>
+      <c r="L335" s="8">
+        <f t="shared" si="7"/>
+        <v>20091</v>
+      </c>
+    </row>
+    <row r="336" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B336" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="H336" t="s">
+        <v>33</v>
+      </c>
+      <c r="I336" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J336" t="s">
+        <v>465</v>
+      </c>
+      <c r="K336" t="b">
+        <v>1</v>
+      </c>
+      <c r="L336" s="8">
+        <f t="shared" si="7"/>
+        <v>20092</v>
+      </c>
+    </row>
+    <row r="337" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B337" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="H337" t="s">
+        <v>33</v>
+      </c>
+      <c r="I337" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J337" t="s">
+        <v>465</v>
+      </c>
+      <c r="K337" t="b">
+        <v>1</v>
+      </c>
+      <c r="L337" s="8">
+        <f t="shared" si="7"/>
+        <v>20093</v>
+      </c>
+    </row>
+    <row r="338" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B338" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="H338" t="s">
+        <v>33</v>
+      </c>
+      <c r="I338" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J338" t="s">
+        <v>465</v>
+      </c>
+      <c r="K338" t="b">
+        <v>1</v>
+      </c>
+      <c r="L338" s="8">
+        <f t="shared" si="7"/>
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="339" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B339" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="H339" t="s">
+        <v>33</v>
+      </c>
+      <c r="I339" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J339" t="s">
+        <v>465</v>
+      </c>
+      <c r="K339" t="b">
+        <v>1</v>
+      </c>
+      <c r="L339" s="8">
+        <f t="shared" si="7"/>
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="340" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B340" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="H340" t="s">
+        <v>33</v>
+      </c>
+      <c r="I340" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J340" t="s">
+        <v>465</v>
+      </c>
+      <c r="K340" t="b">
+        <v>1</v>
+      </c>
+      <c r="L340" s="8">
+        <f t="shared" si="7"/>
+        <v>20003</v>
       </c>
     </row>
   </sheetData>
@@ -11789,4 +14316,331 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426BACE2-1903-4AC0-982F-05F8D37C3166}">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J6" t="s">
+        <v>885</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>10000</v>
+      </c>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J7" t="s">
+        <v>878</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>11001</v>
+      </c>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J8" t="s">
+        <v>878</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>11002</v>
+      </c>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J9" t="s">
+        <v>878</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>11003</v>
+      </c>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="J10" t="s">
+        <v>878</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
+        <v>11004</v>
+      </c>
+      <c r="M10" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>